--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_13_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1412767.504342484</v>
+        <v>1366919.552704122</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4378063.531546157</v>
+        <v>4378063.531546159</v>
       </c>
     </row>
     <row r="8">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>127.0019682550027</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>191.4213393868918</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>41.60194747697156</v>
       </c>
       <c r="S11" t="n">
-        <v>127.0019682550027</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>191.4213393868918</v>
       </c>
       <c r="U11" t="n">
-        <v>191.4213393868918</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>191.4213393868918</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2.070732082106883</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>54.93510909882637</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>191.4213393868918</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>191.4213393868918</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>191.4213393868918</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>191.4213393868918</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>34.35807112874077</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>147.0440776631397</v>
+        <v>167.217852572957</v>
       </c>
       <c r="H13" t="n">
-        <v>155.3533725417971</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>21.42321760391042</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>191.4213393868918</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>191.4213393868917</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>24.57532426230225</v>
+        <v>191.4213393868917</v>
       </c>
       <c r="F14" t="n">
-        <v>191.4213393868918</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>191.4213393868918</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>191.4213393868918</v>
+        <v>168.6039157319741</v>
       </c>
       <c r="I14" t="n">
-        <v>144.028591469672</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>191.4213393868917</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>42.90162923760938</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>168.6039157319742</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>191.4213393868918</v>
+        <v>172.0544134878726</v>
       </c>
       <c r="V15" t="n">
-        <v>191.4213393868918</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>191.4213393868918</v>
+        <v>191.4213393868917</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>191.4213393868917</v>
       </c>
     </row>
     <row r="16">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>103.9761004136372</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.217852572957</v>
@@ -1785,10 +1785,10 @@
         <v>155.3533725417971</v>
       </c>
       <c r="I16" t="n">
-        <v>132.2004439596251</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>38.69911638170199</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>191.4213393868917</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>191.4213393868917</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>37.45403000411213</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>46.57827397700032</v>
+        <v>413.5791839686534</v>
       </c>
       <c r="H17" t="n">
-        <v>321.8234593578619</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>144.028591469672</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>41.60194747697156</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>169.7445931457947</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>215.5509939144079</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.207768624118</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>175.0508523768471</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.4213347161476</v>
+        <v>136.4213347161474</v>
       </c>
       <c r="H18" t="n">
         <v>103.3291032345959</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.42321760391042</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2768588045544</v>
+        <v>204.2072922322307</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>148.6448591475939</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>156.0391954213986</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.5791839686534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.207768624118</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>185.2786365550595</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2216,7 +2216,7 @@
         <v>196.4476862875797</v>
       </c>
       <c r="U21" t="n">
-        <v>225.880712183142</v>
+        <v>225.8807121831417</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>132.2004439596251</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>204.2072922322307</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>105.5598382443388</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>189.7117066637519</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>321.8234593578619</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>144.028591469672</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>41.60194747697156</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>169.7445931457947</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>104.0480999391277</v>
+        <v>251.207768624118</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,28 +2478,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>155.3533725417971</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>38.69911638170199</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>210.5431066932743</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.4127295827243</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>207.1027124810824</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.5791839686534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>321.8234593578619</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>144.028591469672</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>30.07022950568319</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>169.7445931457947</v>
       </c>
       <c r="T26" t="n">
         <v>215.5509939144079</v>
       </c>
       <c r="U26" t="n">
-        <v>181.9469137006049</v>
+        <v>251.207768624118</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>50.25980688110889</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>58.01946911769812</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2768588045544</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2800,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.5791839686534</v>
+        <v>29.6336119917647</v>
       </c>
       <c r="H29" t="n">
         <v>321.8234593578619</v>
       </c>
       <c r="I29" t="n">
-        <v>8.471389886641887</v>
+        <v>144.028591469672</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>215.5509939144079</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.217852572957</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>98.87020846927228</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>224.6422295265924</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>190.892335675106</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>12.61048610694277</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>254.333825323571</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>321.8234593578619</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>144.028591469672</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>41.60194747697156</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>169.7445931457947</v>
       </c>
       <c r="T32" t="n">
         <v>215.5509939144079</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>106.6159250326985</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.217852572957</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>155.3533725417971</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>142.5307997308836</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>159.8666504740533</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>79.35472118016234</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>46.57827397700032</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>321.8234593578619</v>
@@ -3316,19 +3316,19 @@
         <v>41.60194747697156</v>
       </c>
       <c r="S35" t="n">
-        <v>169.7445931457947</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>215.5509939144079</v>
       </c>
       <c r="U35" t="n">
-        <v>251.207768624118</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498677</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3404,7 +3404,7 @@
         <v>225.8807121831417</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494257</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>167.217852572957</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>23.67448310214897</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>142.5307997308836</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>210.5431066932743</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>73.96070187732245</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>40.51335627910579</v>
+        <v>196.8783137085263</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>41.60194747697156</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>169.7445931457947</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.4213347161476</v>
+        <v>136.4213347161474</v>
       </c>
       <c r="H39" t="n">
         <v>103.3291032345959</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.217852572957</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>103.9630904682549</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>204.2072922322307</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>127.0019682550027</v>
+        <v>168.6039157319742</v>
       </c>
       <c r="E41" t="n">
-        <v>191.4213393868918</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>191.4213393868918</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>41.60194747697156</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>191.4213393868918</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>191.4213393868918</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>191.4213393868918</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,22 +3824,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.4213347161474</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>32.18258101582688</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>67.51097716084351</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>191.4213393868918</v>
       </c>
       <c r="V42" t="n">
         <v>191.4213393868918</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>75.25170782746825</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.217852572957</v>
@@ -3918,7 +3918,7 @@
         <v>155.3533725417971</v>
       </c>
       <c r="I43" t="n">
-        <v>132.2004439596251</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.42321760391042</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.4213393868918</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>83.45432136807241</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>191.4213393868918</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,61 +3985,61 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>191.4213393868918</v>
       </c>
       <c r="F44" t="n">
-        <v>4.6501230264278</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>168.6039157319742</v>
+      </c>
+      <c r="V44" t="n">
         <v>191.4213393868918</v>
       </c>
-      <c r="H44" t="n">
+      <c r="W44" t="n">
         <v>191.4213393868918</v>
-      </c>
-      <c r="I44" t="n">
-        <v>144.028591469672</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>41.60194747697156</v>
-      </c>
-      <c r="S44" t="n">
-        <v>169.7445931457947</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>110.9578627465534</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>57.64605298542081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>191.4213393868918</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>191.4213393868918</v>
@@ -4118,10 +4118,10 @@
         <v>191.4213393868918</v>
       </c>
       <c r="W45" t="n">
-        <v>168.6039157319742</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>191.4213393868918</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4134,31 +4134,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>101.0437862991792</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>33.77232223574183</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>155.3533725417971</v>
       </c>
       <c r="I46" t="n">
-        <v>132.2004439596251</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>38.69911638170199</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>191.4213393868918</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.31370715095134</v>
+        <v>336.9534118397337</v>
       </c>
       <c r="C11" t="n">
-        <v>15.31370715095134</v>
+        <v>336.9534118397337</v>
       </c>
       <c r="D11" t="n">
-        <v>15.31370715095134</v>
+        <v>208.6685954205391</v>
       </c>
       <c r="E11" t="n">
-        <v>15.31370715095134</v>
+        <v>208.6685954205391</v>
       </c>
       <c r="F11" t="n">
-        <v>15.31370715095134</v>
+        <v>208.6685954205391</v>
       </c>
       <c r="G11" t="n">
         <v>15.31370715095134</v>
@@ -5041,19 +5041,19 @@
         <v>15.31370715095134</v>
       </c>
       <c r="J11" t="n">
-        <v>43.67216747310101</v>
+        <v>148.3055189774252</v>
       </c>
       <c r="K11" t="n">
-        <v>233.1792934661239</v>
+        <v>337.812644970448</v>
       </c>
       <c r="L11" t="n">
-        <v>422.6864194591468</v>
+        <v>373.6736736737</v>
       </c>
       <c r="M11" t="n">
-        <v>612.1935454521697</v>
+        <v>445.24541523066</v>
       </c>
       <c r="N11" t="n">
-        <v>689.5372009923062</v>
+        <v>634.7525412236829</v>
       </c>
       <c r="O11" t="n">
         <v>749.2353604635493</v>
@@ -5068,25 +5068,25 @@
         <v>723.6631883789091</v>
       </c>
       <c r="S11" t="n">
-        <v>595.3783719597145</v>
+        <v>723.6631883789091</v>
       </c>
       <c r="T11" t="n">
-        <v>402.0234836901268</v>
+        <v>530.3083001093214</v>
       </c>
       <c r="U11" t="n">
-        <v>208.6685954205391</v>
+        <v>530.3083001093214</v>
       </c>
       <c r="V11" t="n">
-        <v>15.31370715095134</v>
+        <v>336.9534118397337</v>
       </c>
       <c r="W11" t="n">
-        <v>15.31370715095134</v>
+        <v>336.9534118397337</v>
       </c>
       <c r="X11" t="n">
-        <v>15.31370715095134</v>
+        <v>336.9534118397337</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.31370715095134</v>
+        <v>336.9534118397337</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>378.9755810083918</v>
+        <v>17.40535571873608</v>
       </c>
       <c r="C12" t="n">
-        <v>378.9755810083918</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="D12" t="n">
-        <v>230.0411713471406</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="E12" t="n">
-        <v>70.80371634168506</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="F12" t="n">
-        <v>70.80371634168506</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="G12" t="n">
-        <v>70.80371634168506</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="H12" t="n">
-        <v>70.80371634168506</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="I12" t="n">
         <v>15.31370715095134</v>
@@ -5123,16 +5123,16 @@
         <v>100.8293395066756</v>
       </c>
       <c r="K12" t="n">
-        <v>111.7894344044867</v>
+        <v>289.953895291978</v>
       </c>
       <c r="L12" t="n">
-        <v>172.8491757094667</v>
+        <v>351.0136365969581</v>
       </c>
       <c r="M12" t="n">
-        <v>344.970332119084</v>
+        <v>540.520762589981</v>
       </c>
       <c r="N12" t="n">
-        <v>534.4774581121069</v>
+        <v>647.9383095534502</v>
       </c>
       <c r="O12" t="n">
         <v>723.9845841051298</v>
@@ -5153,19 +5153,19 @@
         <v>765.6853575475673</v>
       </c>
       <c r="U12" t="n">
-        <v>765.6853575475673</v>
+        <v>572.3304692779795</v>
       </c>
       <c r="V12" t="n">
-        <v>765.6853575475673</v>
+        <v>378.9755810083918</v>
       </c>
       <c r="W12" t="n">
-        <v>765.6853575475673</v>
+        <v>378.9755810083918</v>
       </c>
       <c r="X12" t="n">
-        <v>572.3304692779795</v>
+        <v>378.9755810083918</v>
       </c>
       <c r="Y12" t="n">
-        <v>378.9755810083918</v>
+        <v>185.6206927388041</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>765.6853575475673</v>
+        <v>369.0423907064162</v>
       </c>
       <c r="C13" t="n">
-        <v>765.6853575475673</v>
+        <v>334.3372683541528</v>
       </c>
       <c r="D13" t="n">
-        <v>615.5687181352315</v>
+        <v>184.220628941817</v>
       </c>
       <c r="E13" t="n">
-        <v>467.6556245528384</v>
+        <v>184.220628941817</v>
       </c>
       <c r="F13" t="n">
-        <v>320.765677054928</v>
+        <v>184.220628941817</v>
       </c>
       <c r="G13" t="n">
-        <v>172.2363056780192</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="H13" t="n">
         <v>15.31370715095134</v>
@@ -5202,7 +5202,7 @@
         <v>15.31370715095134</v>
       </c>
       <c r="K13" t="n">
-        <v>82.19195311173394</v>
+        <v>82.19195311173388</v>
       </c>
       <c r="L13" t="n">
         <v>223.2995171703013</v>
@@ -5220,31 +5220,31 @@
         <v>765.6853575475673</v>
       </c>
       <c r="Q13" t="n">
-        <v>765.6853575475673</v>
+        <v>744.0457438062436</v>
       </c>
       <c r="R13" t="n">
-        <v>765.6853575475673</v>
+        <v>744.0457438062436</v>
       </c>
       <c r="S13" t="n">
-        <v>765.6853575475673</v>
+        <v>744.0457438062436</v>
       </c>
       <c r="T13" t="n">
-        <v>765.6853575475673</v>
+        <v>550.6908555366559</v>
       </c>
       <c r="U13" t="n">
-        <v>765.6853575475673</v>
+        <v>550.6908555366559</v>
       </c>
       <c r="V13" t="n">
-        <v>765.6853575475673</v>
+        <v>550.6908555366559</v>
       </c>
       <c r="W13" t="n">
-        <v>765.6853575475673</v>
+        <v>550.6908555366559</v>
       </c>
       <c r="X13" t="n">
-        <v>765.6853575475673</v>
+        <v>550.6908555366559</v>
       </c>
       <c r="Y13" t="n">
-        <v>765.6853575475673</v>
+        <v>550.6908555366559</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>765.6853575475673</v>
+        <v>378.9755810083916</v>
       </c>
       <c r="C14" t="n">
-        <v>765.6853575475673</v>
+        <v>378.9755810083916</v>
       </c>
       <c r="D14" t="n">
-        <v>765.6853575475673</v>
+        <v>378.9755810083916</v>
       </c>
       <c r="E14" t="n">
-        <v>740.8617976866559</v>
+        <v>185.620692738804</v>
       </c>
       <c r="F14" t="n">
-        <v>547.5069094170682</v>
+        <v>185.620692738804</v>
       </c>
       <c r="G14" t="n">
-        <v>354.1520211474805</v>
+        <v>185.620692738804</v>
       </c>
       <c r="H14" t="n">
-        <v>160.7971328778928</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="I14" t="n">
         <v>15.31370715095134</v>
       </c>
       <c r="J14" t="n">
-        <v>15.31370715095134</v>
+        <v>148.3055189774251</v>
       </c>
       <c r="K14" t="n">
-        <v>204.8208331439743</v>
+        <v>330.3884183021622</v>
       </c>
       <c r="L14" t="n">
-        <v>240.6818618472262</v>
+        <v>366.2494470054142</v>
       </c>
       <c r="M14" t="n">
-        <v>370.2211084775035</v>
+        <v>437.8211885623742</v>
       </c>
       <c r="N14" t="n">
-        <v>559.7282344705264</v>
+        <v>515.1648441025108</v>
       </c>
       <c r="O14" t="n">
-        <v>749.2353604635493</v>
+        <v>574.8630035737539</v>
       </c>
       <c r="P14" t="n">
-        <v>765.6853575475673</v>
+        <v>591.3130006577718</v>
       </c>
       <c r="Q14" t="n">
-        <v>765.6853575475673</v>
+        <v>765.6853575475668</v>
       </c>
       <c r="R14" t="n">
-        <v>765.6853575475673</v>
+        <v>765.6853575475668</v>
       </c>
       <c r="S14" t="n">
-        <v>765.6853575475673</v>
+        <v>765.6853575475668</v>
       </c>
       <c r="T14" t="n">
-        <v>765.6853575475673</v>
+        <v>572.3304692779792</v>
       </c>
       <c r="U14" t="n">
-        <v>765.6853575475673</v>
+        <v>572.3304692779792</v>
       </c>
       <c r="V14" t="n">
-        <v>765.6853575475673</v>
+        <v>572.3304692779792</v>
       </c>
       <c r="W14" t="n">
-        <v>765.6853575475673</v>
+        <v>572.3304692779792</v>
       </c>
       <c r="X14" t="n">
-        <v>765.6853575475673</v>
+        <v>572.3304692779792</v>
       </c>
       <c r="Y14" t="n">
-        <v>765.6853575475673</v>
+        <v>572.3304692779792</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.31370715095134</v>
+        <v>161.8482651240664</v>
       </c>
       <c r="C15" t="n">
-        <v>15.31370715095134</v>
+        <v>161.8482651240664</v>
       </c>
       <c r="D15" t="n">
-        <v>15.31370715095134</v>
+        <v>161.8482651240664</v>
       </c>
       <c r="E15" t="n">
-        <v>15.31370715095134</v>
+        <v>161.8482651240664</v>
       </c>
       <c r="F15" t="n">
         <v>15.31370715095134</v>
@@ -5360,49 +5360,49 @@
         <v>100.8293395066756</v>
       </c>
       <c r="K15" t="n">
-        <v>111.7894344044867</v>
+        <v>202.9171338671315</v>
       </c>
       <c r="L15" t="n">
-        <v>172.8491757094667</v>
+        <v>263.9768751721116</v>
       </c>
       <c r="M15" t="n">
-        <v>263.4598819827073</v>
+        <v>354.5875814453521</v>
       </c>
       <c r="N15" t="n">
-        <v>452.9670079757302</v>
+        <v>462.0051284088213</v>
       </c>
       <c r="O15" t="n">
-        <v>576.1782315545444</v>
+        <v>538.0514029605009</v>
       </c>
       <c r="P15" t="n">
-        <v>765.6853575475673</v>
+        <v>579.7521764029384</v>
       </c>
       <c r="Q15" t="n">
-        <v>765.6853575475673</v>
+        <v>765.6853575475668</v>
       </c>
       <c r="R15" t="n">
-        <v>765.6853575475673</v>
+        <v>722.3503785196785</v>
       </c>
       <c r="S15" t="n">
-        <v>765.6853575475673</v>
+        <v>722.3503785196785</v>
       </c>
       <c r="T15" t="n">
-        <v>595.3783719597145</v>
+        <v>722.3503785196785</v>
       </c>
       <c r="U15" t="n">
-        <v>402.0234836901268</v>
+        <v>548.5580416632415</v>
       </c>
       <c r="V15" t="n">
-        <v>208.6685954205391</v>
+        <v>548.5580416632415</v>
       </c>
       <c r="W15" t="n">
-        <v>15.31370715095134</v>
+        <v>355.203153393654</v>
       </c>
       <c r="X15" t="n">
-        <v>15.31370715095134</v>
+        <v>355.203153393654</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.31370715095134</v>
+        <v>161.8482651240664</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>765.6853575475673</v>
+        <v>341.1432274688848</v>
       </c>
       <c r="C16" t="n">
-        <v>765.6853575475673</v>
+        <v>341.1432274688848</v>
       </c>
       <c r="D16" t="n">
-        <v>765.6853575475673</v>
+        <v>341.1432274688848</v>
       </c>
       <c r="E16" t="n">
-        <v>660.6589934933883</v>
+        <v>341.1432274688848</v>
       </c>
       <c r="F16" t="n">
-        <v>513.7690459954779</v>
+        <v>341.1432274688848</v>
       </c>
       <c r="G16" t="n">
-        <v>344.8621242046122</v>
+        <v>172.2363056780191</v>
       </c>
       <c r="H16" t="n">
-        <v>187.9395256775444</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="I16" t="n">
-        <v>54.40372369812508</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="J16" t="n">
         <v>15.31370715095134</v>
       </c>
       <c r="K16" t="n">
-        <v>82.19195311173388</v>
+        <v>82.19195311173378</v>
       </c>
       <c r="L16" t="n">
-        <v>223.2995171703013</v>
+        <v>223.2995171703012</v>
       </c>
       <c r="M16" t="n">
-        <v>382.4667818241771</v>
+        <v>382.466781824177</v>
       </c>
       <c r="N16" t="n">
         <v>543.2840211027658</v>
@@ -5472,16 +5472,16 @@
         <v>765.6853575475673</v>
       </c>
       <c r="V16" t="n">
-        <v>765.6853575475673</v>
+        <v>572.3304692779797</v>
       </c>
       <c r="W16" t="n">
-        <v>765.6853575475673</v>
+        <v>378.9755810083921</v>
       </c>
       <c r="X16" t="n">
-        <v>765.6853575475673</v>
+        <v>378.9755810083921</v>
       </c>
       <c r="Y16" t="n">
-        <v>765.6853575475673</v>
+        <v>341.1432274688848</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>940.2183149825685</v>
+        <v>1002.677839159382</v>
       </c>
       <c r="C17" t="n">
-        <v>571.2557980421568</v>
+        <v>1002.677839159382</v>
       </c>
       <c r="D17" t="n">
-        <v>571.2557980421568</v>
+        <v>1002.677839159382</v>
       </c>
       <c r="E17" t="n">
-        <v>571.2557980421568</v>
+        <v>616.8895865611378</v>
       </c>
       <c r="F17" t="n">
-        <v>571.2557980421568</v>
+        <v>616.8895865611378</v>
       </c>
       <c r="G17" t="n">
-        <v>524.2070364492272</v>
+        <v>199.1328350776495</v>
       </c>
       <c r="H17" t="n">
         <v>199.1328350776495</v>
@@ -5515,52 +5515,52 @@
         <v>53.64940935070812</v>
       </c>
       <c r="J17" t="n">
-        <v>53.64940935070812</v>
+        <v>186.6412211771819</v>
       </c>
       <c r="K17" t="n">
-        <v>373.7144649555133</v>
+        <v>506.7062767819871</v>
       </c>
       <c r="L17" t="n">
-        <v>823.0600960637112</v>
+        <v>956.051907890185</v>
       </c>
       <c r="M17" t="n">
-        <v>1339.650235778575</v>
+        <v>1226.059942842463</v>
       </c>
       <c r="N17" t="n">
-        <v>1849.967346486576</v>
+        <v>1736.377053550464</v>
       </c>
       <c r="O17" t="n">
-        <v>2286.657685407937</v>
+        <v>2173.067392471825</v>
       </c>
       <c r="P17" t="n">
-        <v>2621.688403581723</v>
+        <v>2508.098110645611</v>
       </c>
       <c r="Q17" t="n">
         <v>2682.470467535406</v>
       </c>
       <c r="R17" t="n">
-        <v>2640.448298366748</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="S17" t="n">
-        <v>2468.989113370995</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="T17" t="n">
-        <v>2251.260836689775</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="U17" t="n">
-        <v>1997.515615857333</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="V17" t="n">
-        <v>1666.452728513762</v>
+        <v>2505.65142473051</v>
       </c>
       <c r="W17" t="n">
-        <v>1313.684073243648</v>
+        <v>2152.882769460396</v>
       </c>
       <c r="X17" t="n">
-        <v>940.2183149825685</v>
+        <v>1779.417011199316</v>
       </c>
       <c r="Y17" t="n">
-        <v>940.2183149825685</v>
+        <v>1389.277679223504</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>983.2093571667724</v>
+        <v>983.209357166772</v>
       </c>
       <c r="C18" t="n">
-        <v>808.7563278856454</v>
+        <v>808.756327885645</v>
       </c>
       <c r="D18" t="n">
-        <v>659.8219182243942</v>
+        <v>659.8219182243936</v>
       </c>
       <c r="E18" t="n">
-        <v>500.5844632189387</v>
+        <v>500.584463218938</v>
       </c>
       <c r="F18" t="n">
-        <v>354.0499052458237</v>
+        <v>354.0499052458229</v>
       </c>
       <c r="G18" t="n">
-        <v>216.2505772497149</v>
+        <v>216.2505772497145</v>
       </c>
       <c r="H18" t="n">
-        <v>111.877745699618</v>
+        <v>111.8777456996177</v>
       </c>
       <c r="I18" t="n">
         <v>53.64940935070812</v>
@@ -5597,22 +5597,22 @@
         <v>139.1650417064324</v>
       </c>
       <c r="K18" t="n">
-        <v>411.9457212466963</v>
+        <v>297.7046823990568</v>
       </c>
       <c r="L18" t="n">
-        <v>539.9631844098328</v>
+        <v>725.8963655544615</v>
       </c>
       <c r="M18" t="n">
-        <v>1091.621903795573</v>
+        <v>1277.555084940202</v>
       </c>
       <c r="N18" t="n">
-        <v>1673.58840135916</v>
+        <v>1859.521582503789</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.558371994802</v>
+        <v>2325.491553139431</v>
       </c>
       <c r="P18" t="n">
-        <v>2496.537286390777</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="Q18" t="n">
         <v>2682.470467535406</v>
@@ -5630,7 +5630,7 @@
         <v>2056.425958117271</v>
       </c>
       <c r="V18" t="n">
-        <v>1821.273849885529</v>
+        <v>1821.273849885528</v>
       </c>
       <c r="W18" t="n">
         <v>1567.036493157327</v>
@@ -5694,25 +5694,25 @@
         <v>804.021059747324</v>
       </c>
       <c r="Q19" t="n">
-        <v>782.3814460060004</v>
+        <v>804.021059747324</v>
       </c>
       <c r="R19" t="n">
-        <v>782.3814460060004</v>
+        <v>804.021059747324</v>
       </c>
       <c r="S19" t="n">
-        <v>782.3814460060004</v>
+        <v>804.021059747324</v>
       </c>
       <c r="T19" t="n">
-        <v>782.3814460060004</v>
+        <v>804.021059747324</v>
       </c>
       <c r="U19" t="n">
-        <v>493.2129017589757</v>
+        <v>597.7510675935556</v>
       </c>
       <c r="V19" t="n">
-        <v>493.2129017589757</v>
+        <v>343.0665793876688</v>
       </c>
       <c r="W19" t="n">
-        <v>203.7957317220151</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="X19" t="n">
         <v>53.64940935070812</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>966.0155277998676</v>
+        <v>1251.354582564216</v>
       </c>
       <c r="C20" t="n">
-        <v>597.053010859456</v>
+        <v>882.392065623804</v>
       </c>
       <c r="D20" t="n">
-        <v>597.053010859456</v>
+        <v>882.392065623804</v>
       </c>
       <c r="E20" t="n">
-        <v>211.2647582612117</v>
+        <v>882.392065623804</v>
       </c>
       <c r="F20" t="n">
-        <v>53.64940935070812</v>
+        <v>471.4061608341964</v>
       </c>
       <c r="G20" t="n">
         <v>53.64940935070812</v>
@@ -5752,13 +5752,13 @@
         <v>53.64940935070812</v>
       </c>
       <c r="J20" t="n">
-        <v>53.64940935070812</v>
+        <v>186.6412211771819</v>
       </c>
       <c r="K20" t="n">
-        <v>260.1241720194013</v>
+        <v>506.7062767819871</v>
       </c>
       <c r="L20" t="n">
-        <v>709.4698031275992</v>
+        <v>956.051907890185</v>
       </c>
       <c r="M20" t="n">
         <v>1226.059942842463</v>
@@ -5785,19 +5785,19 @@
         <v>2468.989113370995</v>
       </c>
       <c r="U20" t="n">
-        <v>2468.989113370995</v>
+        <v>2215.243892538553</v>
       </c>
       <c r="V20" t="n">
-        <v>2468.989113370995</v>
+        <v>2215.243892538553</v>
       </c>
       <c r="W20" t="n">
-        <v>2116.220458100881</v>
+        <v>2215.243892538553</v>
       </c>
       <c r="X20" t="n">
-        <v>1742.754699839801</v>
+        <v>2028.093754604149</v>
       </c>
       <c r="Y20" t="n">
-        <v>1352.615367863989</v>
+        <v>1637.954422628337</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>983.2093571667721</v>
+        <v>983.209357166772</v>
       </c>
       <c r="C21" t="n">
-        <v>808.7563278856451</v>
+        <v>808.756327885645</v>
       </c>
       <c r="D21" t="n">
-        <v>659.8219182243938</v>
+        <v>659.8219182243936</v>
       </c>
       <c r="E21" t="n">
-        <v>500.5844632189384</v>
+        <v>500.584463218938</v>
       </c>
       <c r="F21" t="n">
-        <v>354.0499052458234</v>
+        <v>354.0499052458229</v>
       </c>
       <c r="G21" t="n">
-        <v>216.2505772497149</v>
+        <v>216.2505772497148</v>
       </c>
       <c r="H21" t="n">
-        <v>111.877745699618</v>
+        <v>111.8777456996181</v>
       </c>
       <c r="I21" t="n">
         <v>53.64940935070812</v>
@@ -5834,22 +5834,22 @@
         <v>53.64940935070812</v>
       </c>
       <c r="K21" t="n">
-        <v>297.7046823990568</v>
+        <v>111.7715012544282</v>
       </c>
       <c r="L21" t="n">
-        <v>725.8963655544615</v>
+        <v>539.9631844098328</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.555084940202</v>
+        <v>1091.621903795573</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.521582503789</v>
+        <v>1673.58840135916</v>
       </c>
       <c r="O21" t="n">
-        <v>2325.491553139431</v>
+        <v>2139.558371994802</v>
       </c>
       <c r="P21" t="n">
-        <v>2682.470467535406</v>
+        <v>2496.537286390777</v>
       </c>
       <c r="Q21" t="n">
         <v>2682.470467535406</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>187.1852113301274</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="C22" t="n">
-        <v>187.1852113301274</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="D22" t="n">
-        <v>187.1852113301274</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="E22" t="n">
-        <v>187.1852113301274</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="F22" t="n">
-        <v>187.1852113301274</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="G22" t="n">
-        <v>187.1852113301274</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="H22" t="n">
-        <v>187.1852113301274</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="I22" t="n">
         <v>53.64940935070812</v>
@@ -5943,19 +5943,19 @@
         <v>804.021059747324</v>
       </c>
       <c r="U22" t="n">
-        <v>804.021059747324</v>
+        <v>597.7510675935556</v>
       </c>
       <c r="V22" t="n">
-        <v>804.021059747324</v>
+        <v>343.0665793876688</v>
       </c>
       <c r="W22" t="n">
-        <v>514.6038897103633</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="X22" t="n">
-        <v>407.9777904736575</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="Y22" t="n">
-        <v>187.1852113301274</v>
+        <v>53.64940935070812</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1293.458639845585</v>
+        <v>1358.293864025157</v>
       </c>
       <c r="C23" t="n">
-        <v>1293.458639845585</v>
+        <v>989.3313470847452</v>
       </c>
       <c r="D23" t="n">
-        <v>935.1929412388347</v>
+        <v>631.0656484779947</v>
       </c>
       <c r="E23" t="n">
-        <v>935.1929412388347</v>
+        <v>245.2773958797505</v>
       </c>
       <c r="F23" t="n">
-        <v>524.2070364492272</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="G23" t="n">
-        <v>524.2070364492272</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="H23" t="n">
-        <v>199.1328350776495</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="I23" t="n">
         <v>53.64940935070812</v>
@@ -6001,40 +6001,40 @@
         <v>1339.650235778575</v>
       </c>
       <c r="N23" t="n">
-        <v>1849.967346486576</v>
+        <v>1736.377053550464</v>
       </c>
       <c r="O23" t="n">
-        <v>2286.657685407937</v>
+        <v>2173.067392471825</v>
       </c>
       <c r="P23" t="n">
-        <v>2621.688403581723</v>
+        <v>2508.098110645611</v>
       </c>
       <c r="Q23" t="n">
         <v>2682.470467535406</v>
       </c>
       <c r="R23" t="n">
-        <v>2640.448298366748</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="S23" t="n">
-        <v>2468.989113370995</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="T23" t="n">
-        <v>2468.989113370995</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="U23" t="n">
-        <v>2363.890022523392</v>
+        <v>2428.725246702963</v>
       </c>
       <c r="V23" t="n">
-        <v>2032.827135179821</v>
+        <v>2097.662359359393</v>
       </c>
       <c r="W23" t="n">
-        <v>1680.058479909707</v>
+        <v>1744.893704089279</v>
       </c>
       <c r="X23" t="n">
-        <v>1680.058479909707</v>
+        <v>1744.893704089279</v>
       </c>
       <c r="Y23" t="n">
-        <v>1680.058479909707</v>
+        <v>1744.893704089279</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>983.209357166772</v>
+        <v>983.2093571667721</v>
       </c>
       <c r="C24" t="n">
-        <v>808.756327885645</v>
+        <v>808.7563278856451</v>
       </c>
       <c r="D24" t="n">
-        <v>659.8219182243936</v>
+        <v>659.8219182243938</v>
       </c>
       <c r="E24" t="n">
-        <v>500.584463218938</v>
+        <v>500.5844632189384</v>
       </c>
       <c r="F24" t="n">
-        <v>354.0499052458229</v>
+        <v>354.0499052458234</v>
       </c>
       <c r="G24" t="n">
-        <v>216.2505772497145</v>
+        <v>216.2505772497149</v>
       </c>
       <c r="H24" t="n">
-        <v>111.8777456996177</v>
+        <v>111.877745699618</v>
       </c>
       <c r="I24" t="n">
         <v>53.64940935070812</v>
       </c>
       <c r="J24" t="n">
-        <v>100.8114063566171</v>
+        <v>139.1650417064324</v>
       </c>
       <c r="K24" t="n">
-        <v>111.7715012544282</v>
+        <v>411.9457212466963</v>
       </c>
       <c r="L24" t="n">
-        <v>539.9631844098328</v>
+        <v>840.1374044021009</v>
       </c>
       <c r="M24" t="n">
         <v>1091.621903795573</v>
@@ -6092,10 +6092,10 @@
         <v>2682.470467535406</v>
       </c>
       <c r="R24" t="n">
-        <v>2639.135488507517</v>
+        <v>2639.135488507518</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.020300006888</v>
+        <v>2483.020300006889</v>
       </c>
       <c r="T24" t="n">
         <v>2284.588293655798</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.73942589788186</v>
+        <v>674.3112318859863</v>
       </c>
       <c r="C25" t="n">
-        <v>92.73942589788186</v>
+        <v>505.3750489580794</v>
       </c>
       <c r="D25" t="n">
-        <v>92.73942589788186</v>
+        <v>505.3750489580794</v>
       </c>
       <c r="E25" t="n">
-        <v>92.73942589788186</v>
+        <v>357.4619553756863</v>
       </c>
       <c r="F25" t="n">
-        <v>92.73942589788186</v>
+        <v>210.5720078777759</v>
       </c>
       <c r="G25" t="n">
-        <v>92.73942589788186</v>
+        <v>210.5720078777759</v>
       </c>
       <c r="H25" t="n">
-        <v>92.73942589788186</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="I25" t="n">
-        <v>92.73942589788186</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="J25" t="n">
         <v>53.64940935070812</v>
@@ -6174,25 +6174,25 @@
         <v>804.021059747324</v>
       </c>
       <c r="S25" t="n">
-        <v>591.3512550066429</v>
+        <v>804.021059747324</v>
       </c>
       <c r="T25" t="n">
-        <v>591.3512550066429</v>
+        <v>804.021059747324</v>
       </c>
       <c r="U25" t="n">
-        <v>591.3512550066429</v>
+        <v>674.3112318859863</v>
       </c>
       <c r="V25" t="n">
-        <v>591.3512550066429</v>
+        <v>674.3112318859863</v>
       </c>
       <c r="W25" t="n">
-        <v>301.9340849696823</v>
+        <v>674.3112318859863</v>
       </c>
       <c r="X25" t="n">
-        <v>92.73942589788186</v>
+        <v>674.3112318859863</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.73942589788186</v>
+        <v>674.3112318859863</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1576.428783935793</v>
+        <v>935.1929412388347</v>
       </c>
       <c r="C26" t="n">
-        <v>1207.466266995382</v>
+        <v>935.1929412388347</v>
       </c>
       <c r="D26" t="n">
-        <v>1207.466266995382</v>
+        <v>935.1929412388347</v>
       </c>
       <c r="E26" t="n">
-        <v>1207.466266995382</v>
+        <v>935.1929412388347</v>
       </c>
       <c r="F26" t="n">
-        <v>796.4803622057741</v>
+        <v>524.2070364492272</v>
       </c>
       <c r="G26" t="n">
-        <v>378.7236107222859</v>
+        <v>524.2070364492272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.64940935070812</v>
+        <v>199.1328350776495</v>
       </c>
       <c r="I26" t="n">
         <v>53.64940935070812</v>
@@ -6241,37 +6241,37 @@
         <v>1982.95915831305</v>
       </c>
       <c r="O26" t="n">
-        <v>2419.649497234411</v>
+        <v>2173.067392471825</v>
       </c>
       <c r="P26" t="n">
-        <v>2682.470467535406</v>
+        <v>2508.098110645611</v>
       </c>
       <c r="Q26" t="n">
         <v>2682.470467535406</v>
       </c>
       <c r="R26" t="n">
-        <v>2682.470467535406</v>
+        <v>2652.096498337746</v>
       </c>
       <c r="S26" t="n">
-        <v>2682.470467535406</v>
+        <v>2480.637313341994</v>
       </c>
       <c r="T26" t="n">
-        <v>2464.742190854186</v>
+        <v>2262.909036660774</v>
       </c>
       <c r="U26" t="n">
-        <v>2280.957429540444</v>
+        <v>2009.163815828331</v>
       </c>
       <c r="V26" t="n">
-        <v>1949.894542196873</v>
+        <v>1678.100928484761</v>
       </c>
       <c r="W26" t="n">
-        <v>1949.894542196873</v>
+        <v>1325.332273214646</v>
       </c>
       <c r="X26" t="n">
-        <v>1576.428783935793</v>
+        <v>1325.332273214646</v>
       </c>
       <c r="Y26" t="n">
-        <v>1576.428783935793</v>
+        <v>935.1929412388347</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>983.2093571667721</v>
+        <v>983.209357166772</v>
       </c>
       <c r="C27" t="n">
-        <v>808.7563278856451</v>
+        <v>808.756327885645</v>
       </c>
       <c r="D27" t="n">
-        <v>659.8219182243938</v>
+        <v>659.8219182243936</v>
       </c>
       <c r="E27" t="n">
-        <v>500.5844632189384</v>
+        <v>500.584463218938</v>
       </c>
       <c r="F27" t="n">
-        <v>354.0499052458234</v>
+        <v>354.0499052458229</v>
       </c>
       <c r="G27" t="n">
-        <v>216.2505772497149</v>
+        <v>216.2505772497148</v>
       </c>
       <c r="H27" t="n">
-        <v>111.877745699618</v>
+        <v>111.8777456996181</v>
       </c>
       <c r="I27" t="n">
         <v>53.64940935070812</v>
       </c>
       <c r="J27" t="n">
-        <v>53.64940935070812</v>
+        <v>139.1650417064324</v>
       </c>
       <c r="K27" t="n">
-        <v>326.430088890972</v>
+        <v>411.9457212466963</v>
       </c>
       <c r="L27" t="n">
-        <v>754.6217720463767</v>
+        <v>840.1374044021009</v>
       </c>
       <c r="M27" t="n">
-        <v>1306.280491432117</v>
+        <v>1391.796123787841</v>
       </c>
       <c r="N27" t="n">
-        <v>1888.246988995704</v>
+        <v>1673.58840135916</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.216959631346</v>
+        <v>2139.558371994802</v>
       </c>
       <c r="P27" t="n">
-        <v>2682.470467535406</v>
+        <v>2496.537286390777</v>
       </c>
       <c r="Q27" t="n">
         <v>2682.470467535406</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2427.785979329519</v>
+        <v>260.1680272944125</v>
       </c>
       <c r="C28" t="n">
-        <v>2377.018497631429</v>
+        <v>260.1680272944125</v>
       </c>
       <c r="D28" t="n">
-        <v>2226.901858219094</v>
+        <v>260.1680272944125</v>
       </c>
       <c r="E28" t="n">
-        <v>2078.988764636701</v>
+        <v>112.2549337120194</v>
       </c>
       <c r="F28" t="n">
-        <v>1932.09881713879</v>
+        <v>112.2549337120194</v>
       </c>
       <c r="G28" t="n">
-        <v>1932.09881713879</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="H28" t="n">
-        <v>1932.09881713879</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="I28" t="n">
-        <v>1932.09881713879</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="J28" t="n">
-        <v>1932.09881713879</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="K28" t="n">
-        <v>1998.977063099572</v>
+        <v>120.5276553114906</v>
       </c>
       <c r="L28" t="n">
-        <v>2140.08462715814</v>
+        <v>261.6352193700581</v>
       </c>
       <c r="M28" t="n">
-        <v>2299.251891812016</v>
+        <v>420.8024840239339</v>
       </c>
       <c r="N28" t="n">
-        <v>2460.069131090605</v>
+        <v>581.6197233025225</v>
       </c>
       <c r="O28" t="n">
-        <v>2592.593585074329</v>
+        <v>714.1441772862469</v>
       </c>
       <c r="P28" t="n">
-        <v>2682.470467535406</v>
+        <v>804.021059747324</v>
       </c>
       <c r="Q28" t="n">
-        <v>2682.470467535406</v>
+        <v>804.021059747324</v>
       </c>
       <c r="R28" t="n">
-        <v>2682.470467535406</v>
+        <v>804.021059747324</v>
       </c>
       <c r="S28" t="n">
-        <v>2682.470467535406</v>
+        <v>804.021059747324</v>
       </c>
       <c r="T28" t="n">
-        <v>2682.470467535406</v>
+        <v>804.021059747324</v>
       </c>
       <c r="U28" t="n">
-        <v>2682.470467535406</v>
+        <v>514.8525155002993</v>
       </c>
       <c r="V28" t="n">
-        <v>2427.785979329519</v>
+        <v>260.1680272944125</v>
       </c>
       <c r="W28" t="n">
-        <v>2427.785979329519</v>
+        <v>260.1680272944125</v>
       </c>
       <c r="X28" t="n">
-        <v>2427.785979329519</v>
+        <v>260.1680272944125</v>
       </c>
       <c r="Y28" t="n">
-        <v>2427.785979329519</v>
+        <v>260.1680272944125</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1532.265537234393</v>
+        <v>2078.142350790064</v>
       </c>
       <c r="C29" t="n">
-        <v>1163.303020293981</v>
+        <v>1709.179833849652</v>
       </c>
       <c r="D29" t="n">
-        <v>805.0373216872306</v>
+        <v>1350.914135242902</v>
       </c>
       <c r="E29" t="n">
-        <v>805.0373216872306</v>
+        <v>965.1258826446576</v>
       </c>
       <c r="F29" t="n">
-        <v>805.0373216872306</v>
+        <v>554.1399778550501</v>
       </c>
       <c r="G29" t="n">
-        <v>387.2805702037423</v>
+        <v>524.2070364492272</v>
       </c>
       <c r="H29" t="n">
-        <v>62.20636883216457</v>
+        <v>199.1328350776495</v>
       </c>
       <c r="I29" t="n">
         <v>53.64940935070812</v>
@@ -6493,22 +6493,22 @@
         <v>2682.470467535406</v>
       </c>
       <c r="T29" t="n">
-        <v>2682.470467535406</v>
+        <v>2464.742190854186</v>
       </c>
       <c r="U29" t="n">
-        <v>2682.470467535406</v>
+        <v>2464.742190854186</v>
       </c>
       <c r="V29" t="n">
-        <v>2682.470467535406</v>
+        <v>2464.742190854186</v>
       </c>
       <c r="W29" t="n">
-        <v>2682.470467535406</v>
+        <v>2464.742190854186</v>
       </c>
       <c r="X29" t="n">
-        <v>2309.004709274326</v>
+        <v>2464.742190854186</v>
       </c>
       <c r="Y29" t="n">
-        <v>1918.865377298514</v>
+        <v>2464.742190854186</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>983.2093571667721</v>
+        <v>983.209357166772</v>
       </c>
       <c r="C30" t="n">
-        <v>808.7563278856451</v>
+        <v>808.756327885645</v>
       </c>
       <c r="D30" t="n">
-        <v>659.8219182243938</v>
+        <v>659.8219182243936</v>
       </c>
       <c r="E30" t="n">
-        <v>500.5844632189384</v>
+        <v>500.584463218938</v>
       </c>
       <c r="F30" t="n">
-        <v>354.0499052458234</v>
+        <v>354.0499052458229</v>
       </c>
       <c r="G30" t="n">
-        <v>216.2505772497149</v>
+        <v>216.2505772497148</v>
       </c>
       <c r="H30" t="n">
         <v>111.877745699618</v>
@@ -6554,10 +6554,10 @@
         <v>1391.796123787841</v>
       </c>
       <c r="N30" t="n">
-        <v>1973.762621351428</v>
+        <v>1673.58840135916</v>
       </c>
       <c r="O30" t="n">
-        <v>2439.73259198707</v>
+        <v>2139.558371994802</v>
       </c>
       <c r="P30" t="n">
         <v>2496.537286390777</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>322.4252285852832</v>
+        <v>201.5625029331012</v>
       </c>
       <c r="C31" t="n">
-        <v>322.4252285852832</v>
+        <v>201.5625029331012</v>
       </c>
       <c r="D31" t="n">
-        <v>322.4252285852832</v>
+        <v>201.5625029331012</v>
       </c>
       <c r="E31" t="n">
-        <v>322.4252285852832</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="F31" t="n">
-        <v>322.4252285852832</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="G31" t="n">
-        <v>153.5183067944175</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="H31" t="n">
         <v>53.64940935070812</v>
@@ -6651,22 +6651,22 @@
         <v>804.021059747324</v>
       </c>
       <c r="T31" t="n">
-        <v>577.1097167911701</v>
+        <v>804.021059747324</v>
       </c>
       <c r="U31" t="n">
-        <v>577.1097167911701</v>
+        <v>804.021059747324</v>
       </c>
       <c r="V31" t="n">
-        <v>322.4252285852832</v>
+        <v>804.021059747324</v>
       </c>
       <c r="W31" t="n">
-        <v>322.4252285852832</v>
+        <v>804.021059747324</v>
       </c>
       <c r="X31" t="n">
-        <v>322.4252285852832</v>
+        <v>576.0315088493066</v>
       </c>
       <c r="Y31" t="n">
-        <v>322.4252285852832</v>
+        <v>383.2109677633409</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>721.5381680025087</v>
+        <v>536.9449012037148</v>
       </c>
       <c r="C32" t="n">
-        <v>721.5381680025087</v>
+        <v>536.9449012037148</v>
       </c>
       <c r="D32" t="n">
-        <v>721.5381680025087</v>
+        <v>524.2070364492272</v>
       </c>
       <c r="E32" t="n">
-        <v>721.5381680025087</v>
+        <v>524.2070364492272</v>
       </c>
       <c r="F32" t="n">
-        <v>310.5522632129011</v>
+        <v>524.2070364492272</v>
       </c>
       <c r="G32" t="n">
-        <v>53.64940935070812</v>
+        <v>524.2070364492272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.64940935070812</v>
+        <v>199.1328350776495</v>
       </c>
       <c r="I32" t="n">
         <v>53.64940935070812</v>
@@ -6712,7 +6712,7 @@
         <v>1472.642047605049</v>
       </c>
       <c r="N32" t="n">
-        <v>1910.749410440259</v>
+        <v>1982.95915831305</v>
       </c>
       <c r="O32" t="n">
         <v>2347.43974936162</v>
@@ -6727,25 +6727,25 @@
         <v>2640.448298366748</v>
       </c>
       <c r="S32" t="n">
-        <v>2640.448298366748</v>
+        <v>2468.989113370995</v>
       </c>
       <c r="T32" t="n">
-        <v>2422.720021685528</v>
+        <v>2251.260836689775</v>
       </c>
       <c r="U32" t="n">
-        <v>2168.974800853085</v>
+        <v>1997.515615857333</v>
       </c>
       <c r="V32" t="n">
-        <v>1837.911913509514</v>
+        <v>1666.452728513762</v>
       </c>
       <c r="W32" t="n">
-        <v>1485.1432582394</v>
+        <v>1313.684073243648</v>
       </c>
       <c r="X32" t="n">
-        <v>1111.67749997832</v>
+        <v>1313.684073243648</v>
       </c>
       <c r="Y32" t="n">
-        <v>721.5381680025087</v>
+        <v>923.5447412678366</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>354.0499052458229</v>
       </c>
       <c r="G33" t="n">
-        <v>216.2505772497146</v>
+        <v>216.2505772497148</v>
       </c>
       <c r="H33" t="n">
         <v>111.877745699618</v>
@@ -6779,25 +6779,25 @@
         <v>53.64940935070812</v>
       </c>
       <c r="J33" t="n">
-        <v>53.64940935070812</v>
+        <v>139.1650417064324</v>
       </c>
       <c r="K33" t="n">
-        <v>326.430088890972</v>
+        <v>411.9457212466963</v>
       </c>
       <c r="L33" t="n">
-        <v>754.6217720463767</v>
+        <v>840.1374044021009</v>
       </c>
       <c r="M33" t="n">
-        <v>1306.280491432117</v>
+        <v>1391.796123787841</v>
       </c>
       <c r="N33" t="n">
-        <v>1888.246988995704</v>
+        <v>1973.762621351428</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.216959631346</v>
+        <v>2439.73259198707</v>
       </c>
       <c r="P33" t="n">
-        <v>2682.470467535406</v>
+        <v>2496.537286390777</v>
       </c>
       <c r="Q33" t="n">
         <v>2682.470467535406</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>804.021059747324</v>
+        <v>498.5690898433473</v>
       </c>
       <c r="C34" t="n">
-        <v>635.0848768194171</v>
+        <v>498.5690898433473</v>
       </c>
       <c r="D34" t="n">
-        <v>635.0848768194171</v>
+        <v>348.4524504310116</v>
       </c>
       <c r="E34" t="n">
-        <v>487.171783237024</v>
+        <v>200.5393568486185</v>
       </c>
       <c r="F34" t="n">
-        <v>379.4789296686416</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="G34" t="n">
-        <v>210.5720078777759</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="H34" t="n">
         <v>53.64940935070812</v>
@@ -6882,28 +6882,28 @@
         <v>804.021059747324</v>
       </c>
       <c r="R34" t="n">
-        <v>804.021059747324</v>
+        <v>660.0505549686537</v>
       </c>
       <c r="S34" t="n">
-        <v>804.021059747324</v>
+        <v>660.0505549686537</v>
       </c>
       <c r="T34" t="n">
-        <v>804.021059747324</v>
+        <v>660.0505549686537</v>
       </c>
       <c r="U34" t="n">
-        <v>804.021059747324</v>
+        <v>660.0505549686537</v>
       </c>
       <c r="V34" t="n">
-        <v>804.021059747324</v>
+        <v>660.0505549686537</v>
       </c>
       <c r="W34" t="n">
-        <v>804.021059747324</v>
+        <v>660.0505549686537</v>
       </c>
       <c r="X34" t="n">
-        <v>804.021059747324</v>
+        <v>498.5690898433473</v>
       </c>
       <c r="Y34" t="n">
-        <v>804.021059747324</v>
+        <v>498.5690898433473</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>940.2183149825685</v>
+        <v>1331.591536016755</v>
       </c>
       <c r="C35" t="n">
-        <v>571.2557980421568</v>
+        <v>962.6290190763436</v>
       </c>
       <c r="D35" t="n">
-        <v>571.2557980421568</v>
+        <v>604.3633204695932</v>
       </c>
       <c r="E35" t="n">
-        <v>571.2557980421568</v>
+        <v>524.2070364492272</v>
       </c>
       <c r="F35" t="n">
-        <v>571.2557980421568</v>
+        <v>524.2070364492272</v>
       </c>
       <c r="G35" t="n">
         <v>524.2070364492272</v>
@@ -6937,16 +6937,16 @@
         <v>53.64940935070812</v>
       </c>
       <c r="J35" t="n">
-        <v>53.64940935070812</v>
+        <v>186.6412211771819</v>
       </c>
       <c r="K35" t="n">
-        <v>373.7144649555133</v>
+        <v>506.7062767819871</v>
       </c>
       <c r="L35" t="n">
-        <v>823.0600960637112</v>
+        <v>956.051907890185</v>
       </c>
       <c r="M35" t="n">
-        <v>1339.650235778575</v>
+        <v>1226.059942842463</v>
       </c>
       <c r="N35" t="n">
         <v>1736.377053550464</v>
@@ -6964,25 +6964,25 @@
         <v>2640.448298366748</v>
       </c>
       <c r="S35" t="n">
-        <v>2468.989113370995</v>
+        <v>2640.448298366748</v>
       </c>
       <c r="T35" t="n">
-        <v>2251.260836689775</v>
+        <v>2422.720021685528</v>
       </c>
       <c r="U35" t="n">
-        <v>1997.515615857333</v>
+        <v>2422.720021685528</v>
       </c>
       <c r="V35" t="n">
-        <v>1666.452728513762</v>
+        <v>2091.657134341957</v>
       </c>
       <c r="W35" t="n">
-        <v>1313.684073243648</v>
+        <v>2091.657134341957</v>
       </c>
       <c r="X35" t="n">
-        <v>940.2183149825685</v>
+        <v>1718.191376080877</v>
       </c>
       <c r="Y35" t="n">
-        <v>940.2183149825685</v>
+        <v>1718.191376080877</v>
       </c>
     </row>
     <row r="36">
@@ -7019,13 +7019,13 @@
         <v>53.64940935070812</v>
       </c>
       <c r="K36" t="n">
-        <v>326.430088890972</v>
+        <v>297.7046823990568</v>
       </c>
       <c r="L36" t="n">
-        <v>754.6217720463767</v>
+        <v>725.8963655544615</v>
       </c>
       <c r="M36" t="n">
-        <v>1306.280491432117</v>
+        <v>1277.555084940202</v>
       </c>
       <c r="N36" t="n">
         <v>1859.521582503789</v>
@@ -7052,7 +7052,7 @@
         <v>2056.425958117271</v>
       </c>
       <c r="V36" t="n">
-        <v>1821.273849885529</v>
+        <v>1821.273849885528</v>
       </c>
       <c r="W36" t="n">
         <v>1567.036493157327</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>372.6729705539095</v>
+        <v>394.3830440190669</v>
       </c>
       <c r="C37" t="n">
-        <v>372.6729705539095</v>
+        <v>394.3830440190669</v>
       </c>
       <c r="D37" t="n">
-        <v>222.5563311415738</v>
+        <v>394.3830440190669</v>
       </c>
       <c r="E37" t="n">
-        <v>222.5563311415738</v>
+        <v>246.4699504366738</v>
       </c>
       <c r="F37" t="n">
-        <v>222.5563311415738</v>
+        <v>246.4699504366738</v>
       </c>
       <c r="G37" t="n">
-        <v>53.64940935070812</v>
+        <v>77.56302864580809</v>
       </c>
       <c r="H37" t="n">
         <v>53.64940935070812</v>
@@ -7119,28 +7119,28 @@
         <v>804.021059747324</v>
       </c>
       <c r="R37" t="n">
-        <v>660.0505549686537</v>
+        <v>804.021059747324</v>
       </c>
       <c r="S37" t="n">
-        <v>447.3807502279726</v>
+        <v>804.021059747324</v>
       </c>
       <c r="T37" t="n">
-        <v>447.3807502279726</v>
+        <v>804.021059747324</v>
       </c>
       <c r="U37" t="n">
-        <v>447.3807502279726</v>
+        <v>804.021059747324</v>
       </c>
       <c r="V37" t="n">
-        <v>447.3807502279726</v>
+        <v>804.021059747324</v>
       </c>
       <c r="W37" t="n">
-        <v>447.3807502279726</v>
+        <v>804.021059747324</v>
       </c>
       <c r="X37" t="n">
-        <v>372.6729705539095</v>
+        <v>576.0315088493066</v>
       </c>
       <c r="Y37" t="n">
-        <v>372.6729705539095</v>
+        <v>576.0315088493066</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2137.926226027425</v>
+        <v>2295.870627471284</v>
       </c>
       <c r="C38" t="n">
         <v>2097.003643927318</v>
@@ -7162,64 +7162,64 @@
         <v>1352.949692722323</v>
       </c>
       <c r="F38" t="n">
-        <v>941.9637879327156</v>
+        <v>941.9637879327155</v>
       </c>
       <c r="G38" t="n">
-        <v>524.2070364492273</v>
+        <v>524.2070364492272</v>
       </c>
       <c r="H38" t="n">
-        <v>199.1328350776496</v>
+        <v>199.1328350776495</v>
       </c>
       <c r="I38" t="n">
-        <v>53.64940935070813</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="J38" t="n">
-        <v>53.64940935070813</v>
+        <v>186.6412211771819</v>
       </c>
       <c r="K38" t="n">
-        <v>373.7144649555133</v>
+        <v>506.7062767819871</v>
       </c>
       <c r="L38" t="n">
-        <v>823.0600960637112</v>
+        <v>956.051907890185</v>
       </c>
       <c r="M38" t="n">
-        <v>1339.650235778575</v>
+        <v>1400.432299732258</v>
       </c>
       <c r="N38" t="n">
-        <v>1849.967346486576</v>
+        <v>1910.749410440259</v>
       </c>
       <c r="O38" t="n">
-        <v>2286.657685407937</v>
+        <v>2347.43974936162</v>
       </c>
       <c r="P38" t="n">
-        <v>2621.688403581723</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="Q38" t="n">
         <v>2682.470467535406</v>
       </c>
       <c r="R38" t="n">
-        <v>2640.448298366748</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="S38" t="n">
-        <v>2468.989113370996</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="T38" t="n">
-        <v>2468.989113370996</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="U38" t="n">
-        <v>2468.989113370996</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="V38" t="n">
-        <v>2137.926226027425</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="W38" t="n">
-        <v>2137.926226027425</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="X38" t="n">
-        <v>2137.926226027425</v>
+        <v>2682.470467535406</v>
       </c>
       <c r="Y38" t="n">
-        <v>2137.926226027425</v>
+        <v>2682.470467535406</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>983.2093571667724</v>
+        <v>983.209357166772</v>
       </c>
       <c r="C39" t="n">
-        <v>808.7563278856454</v>
+        <v>808.756327885645</v>
       </c>
       <c r="D39" t="n">
-        <v>659.8219182243942</v>
+        <v>659.8219182243936</v>
       </c>
       <c r="E39" t="n">
-        <v>500.5844632189387</v>
+        <v>500.584463218938</v>
       </c>
       <c r="F39" t="n">
-        <v>354.0499052458237</v>
+        <v>354.0499052458229</v>
       </c>
       <c r="G39" t="n">
-        <v>216.2505772497149</v>
+        <v>216.2505772497148</v>
       </c>
       <c r="H39" t="n">
         <v>111.877745699618</v>
       </c>
       <c r="I39" t="n">
-        <v>53.64940935070813</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="J39" t="n">
-        <v>139.1650417064324</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="K39" t="n">
-        <v>297.7046823990573</v>
+        <v>326.430088890972</v>
       </c>
       <c r="L39" t="n">
-        <v>725.8963655544619</v>
+        <v>754.6217720463767</v>
       </c>
       <c r="M39" t="n">
-        <v>1277.555084940202</v>
+        <v>1306.280491432117</v>
       </c>
       <c r="N39" t="n">
         <v>1859.521582503789</v>
@@ -7289,7 +7289,7 @@
         <v>2056.425958117271</v>
       </c>
       <c r="V39" t="n">
-        <v>1821.273849885529</v>
+        <v>1821.273849885528</v>
       </c>
       <c r="W39" t="n">
         <v>1567.036493157327</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.64940935070813</v>
+        <v>622.3725949170843</v>
       </c>
       <c r="C40" t="n">
-        <v>53.64940935070813</v>
+        <v>622.3725949170843</v>
       </c>
       <c r="D40" t="n">
-        <v>53.64940935070813</v>
+        <v>622.3725949170843</v>
       </c>
       <c r="E40" t="n">
-        <v>53.64940935070813</v>
+        <v>474.4595013346911</v>
       </c>
       <c r="F40" t="n">
-        <v>53.64940935070813</v>
+        <v>327.5695538367808</v>
       </c>
       <c r="G40" t="n">
-        <v>53.64940935070813</v>
+        <v>158.662632045915</v>
       </c>
       <c r="H40" t="n">
-        <v>53.64940935070813</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="I40" t="n">
-        <v>53.64940935070813</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="J40" t="n">
-        <v>53.64940935070813</v>
+        <v>53.64940935070812</v>
       </c>
       <c r="K40" t="n">
         <v>120.5276553114906</v>
@@ -7365,19 +7365,19 @@
         <v>804.021059747324</v>
       </c>
       <c r="U40" t="n">
-        <v>597.7510675935556</v>
+        <v>804.021059747324</v>
       </c>
       <c r="V40" t="n">
-        <v>343.0665793876688</v>
+        <v>804.021059747324</v>
       </c>
       <c r="W40" t="n">
-        <v>53.64940935070813</v>
+        <v>804.021059747324</v>
       </c>
       <c r="X40" t="n">
-        <v>53.64940935070813</v>
+        <v>804.021059747324</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.64940935070813</v>
+        <v>804.021059747324</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>530.3083001093214</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="C41" t="n">
-        <v>530.3083001093214</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="D41" t="n">
-        <v>402.0234836901268</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="E41" t="n">
-        <v>208.6685954205391</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="F41" t="n">
-        <v>208.6685954205391</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="G41" t="n">
-        <v>208.6685954205391</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="H41" t="n">
         <v>15.31370715095134</v>
@@ -7411,7 +7411,7 @@
         <v>15.31370715095134</v>
       </c>
       <c r="J41" t="n">
-        <v>148.3055189774252</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="K41" t="n">
         <v>201.8946797611729</v>
@@ -7435,28 +7435,28 @@
         <v>765.6853575475673</v>
       </c>
       <c r="R41" t="n">
-        <v>723.6631883789091</v>
+        <v>765.6853575475673</v>
       </c>
       <c r="S41" t="n">
-        <v>723.6631883789091</v>
+        <v>765.6853575475673</v>
       </c>
       <c r="T41" t="n">
-        <v>723.6631883789091</v>
+        <v>765.6853575475673</v>
       </c>
       <c r="U41" t="n">
-        <v>530.3083001093214</v>
+        <v>572.3304692779795</v>
       </c>
       <c r="V41" t="n">
-        <v>530.3083001093214</v>
+        <v>378.9755810083918</v>
       </c>
       <c r="W41" t="n">
-        <v>530.3083001093214</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="X41" t="n">
-        <v>530.3083001093214</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="Y41" t="n">
-        <v>530.3083001093214</v>
+        <v>185.6206927388041</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>310.7826747853176</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="C42" t="n">
-        <v>310.7826747853176</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="D42" t="n">
-        <v>161.8482651240664</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="E42" t="n">
-        <v>161.8482651240664</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="F42" t="n">
-        <v>15.31370715095134</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="G42" t="n">
-        <v>15.31370715095134</v>
+        <v>47.82136474269566</v>
       </c>
       <c r="H42" t="n">
-        <v>15.31370715095134</v>
+        <v>47.82136474269566</v>
       </c>
       <c r="I42" t="n">
         <v>15.31370715095134</v>
       </c>
       <c r="J42" t="n">
-        <v>15.31370715095134</v>
+        <v>100.8293395066756</v>
       </c>
       <c r="K42" t="n">
-        <v>26.2738020487624</v>
+        <v>111.7894344044867</v>
       </c>
       <c r="L42" t="n">
-        <v>87.33354335374247</v>
+        <v>263.976875172112</v>
       </c>
       <c r="M42" t="n">
-        <v>177.944249626983</v>
+        <v>354.5875814453526</v>
       </c>
       <c r="N42" t="n">
-        <v>285.3617965904522</v>
+        <v>462.0051284088217</v>
       </c>
       <c r="O42" t="n">
-        <v>390.245050409916</v>
+        <v>538.0514029605014</v>
       </c>
       <c r="P42" t="n">
         <v>579.7521764029389</v>
@@ -7520,22 +7520,22 @@
         <v>765.6853575475673</v>
       </c>
       <c r="T42" t="n">
-        <v>697.492451324493</v>
+        <v>765.6853575475673</v>
       </c>
       <c r="U42" t="n">
-        <v>697.492451324493</v>
+        <v>572.3304692779795</v>
       </c>
       <c r="V42" t="n">
-        <v>504.1375630549053</v>
+        <v>378.9755810083918</v>
       </c>
       <c r="W42" t="n">
-        <v>310.7826747853176</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="X42" t="n">
-        <v>310.7826747853176</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="Y42" t="n">
-        <v>310.7826747853176</v>
+        <v>185.6206927388041</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>550.6908555366559</v>
+        <v>488.0331749667953</v>
       </c>
       <c r="C43" t="n">
-        <v>550.6908555366559</v>
+        <v>488.0331749667953</v>
       </c>
       <c r="D43" t="n">
-        <v>550.6908555366559</v>
+        <v>488.0331749667953</v>
       </c>
       <c r="E43" t="n">
-        <v>550.6908555366559</v>
+        <v>488.0331749667953</v>
       </c>
       <c r="F43" t="n">
-        <v>474.6790294483042</v>
+        <v>341.1432274688849</v>
       </c>
       <c r="G43" t="n">
-        <v>305.7721076574384</v>
+        <v>172.2363056780192</v>
       </c>
       <c r="H43" t="n">
-        <v>148.8495091303706</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="I43" t="n">
         <v>15.31370715095134</v>
@@ -7578,7 +7578,7 @@
         <v>223.2995171703012</v>
       </c>
       <c r="M43" t="n">
-        <v>382.4667818241771</v>
+        <v>382.466781824177</v>
       </c>
       <c r="N43" t="n">
         <v>543.2840211027658</v>
@@ -7590,31 +7590,31 @@
         <v>765.6853575475673</v>
       </c>
       <c r="Q43" t="n">
-        <v>744.0457438062436</v>
+        <v>765.6853575475673</v>
       </c>
       <c r="R43" t="n">
-        <v>744.0457438062436</v>
+        <v>765.6853575475673</v>
       </c>
       <c r="S43" t="n">
-        <v>744.0457438062436</v>
+        <v>765.6853575475673</v>
       </c>
       <c r="T43" t="n">
-        <v>744.0457438062436</v>
+        <v>572.3304692779795</v>
       </c>
       <c r="U43" t="n">
-        <v>744.0457438062436</v>
+        <v>488.0331749667953</v>
       </c>
       <c r="V43" t="n">
-        <v>744.0457438062436</v>
+        <v>488.0331749667953</v>
       </c>
       <c r="W43" t="n">
-        <v>550.6908555366559</v>
+        <v>488.0331749667953</v>
       </c>
       <c r="X43" t="n">
-        <v>550.6908555366559</v>
+        <v>488.0331749667953</v>
       </c>
       <c r="Y43" t="n">
-        <v>550.6908555366559</v>
+        <v>488.0331749667953</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>552.2040033831569</v>
+        <v>208.6685954205391</v>
       </c>
       <c r="C44" t="n">
-        <v>552.2040033831569</v>
+        <v>208.6685954205391</v>
       </c>
       <c r="D44" t="n">
-        <v>552.2040033831569</v>
+        <v>208.6685954205391</v>
       </c>
       <c r="E44" t="n">
-        <v>552.2040033831569</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="F44" t="n">
-        <v>547.5069094170682</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="G44" t="n">
-        <v>354.1520211474805</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="H44" t="n">
-        <v>160.7971328778928</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="I44" t="n">
         <v>15.31370715095134</v>
       </c>
       <c r="J44" t="n">
-        <v>15.31370715095134</v>
+        <v>148.3055189774252</v>
       </c>
       <c r="K44" t="n">
-        <v>176.7423210123918</v>
+        <v>148.3055189774252</v>
       </c>
       <c r="L44" t="n">
-        <v>366.2494470054147</v>
+        <v>184.1665476806771</v>
       </c>
       <c r="M44" t="n">
-        <v>437.8211885623746</v>
+        <v>255.7382892376371</v>
       </c>
       <c r="N44" t="n">
-        <v>515.1648441025112</v>
+        <v>342.1077151935063</v>
       </c>
       <c r="O44" t="n">
-        <v>574.8630035737543</v>
+        <v>401.8058746647494</v>
       </c>
       <c r="P44" t="n">
         <v>591.3130006577722</v>
@@ -7672,28 +7672,28 @@
         <v>765.6853575475673</v>
       </c>
       <c r="R44" t="n">
-        <v>723.6631883789091</v>
+        <v>765.6853575475673</v>
       </c>
       <c r="S44" t="n">
-        <v>552.2040033831569</v>
+        <v>765.6853575475673</v>
       </c>
       <c r="T44" t="n">
-        <v>552.2040033831569</v>
+        <v>765.6853575475673</v>
       </c>
       <c r="U44" t="n">
-        <v>552.2040033831569</v>
+        <v>595.3783719597145</v>
       </c>
       <c r="V44" t="n">
-        <v>552.2040033831569</v>
+        <v>402.0234836901268</v>
       </c>
       <c r="W44" t="n">
-        <v>552.2040033831569</v>
+        <v>208.6685954205391</v>
       </c>
       <c r="X44" t="n">
-        <v>552.2040033831569</v>
+        <v>208.6685954205391</v>
       </c>
       <c r="Y44" t="n">
-        <v>552.2040033831569</v>
+        <v>208.6685954205391</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>15.31370715095134</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="C45" t="n">
-        <v>15.31370715095134</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="D45" t="n">
-        <v>15.31370715095134</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="E45" t="n">
-        <v>15.31370715095134</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="F45" t="n">
-        <v>15.31370715095134</v>
+        <v>185.6206927388041</v>
       </c>
       <c r="G45" t="n">
-        <v>15.31370715095134</v>
+        <v>73.54204349986125</v>
       </c>
       <c r="H45" t="n">
-        <v>15.31370715095134</v>
+        <v>73.54204349986125</v>
       </c>
       <c r="I45" t="n">
         <v>15.31370715095134</v>
       </c>
       <c r="J45" t="n">
-        <v>15.31370715095134</v>
+        <v>100.8293395066756</v>
       </c>
       <c r="K45" t="n">
-        <v>26.2738020487624</v>
+        <v>111.7894344044867</v>
       </c>
       <c r="L45" t="n">
-        <v>215.7809280417853</v>
+        <v>172.8491757094667</v>
       </c>
       <c r="M45" t="n">
-        <v>405.2880540348082</v>
+        <v>263.4598819827073</v>
       </c>
       <c r="N45" t="n">
-        <v>594.7951800278311</v>
+        <v>370.8774289461765</v>
       </c>
       <c r="O45" t="n">
-        <v>670.8414545795107</v>
+        <v>538.0514029605014</v>
       </c>
       <c r="P45" t="n">
-        <v>712.5422280219482</v>
+        <v>579.7521764029389</v>
       </c>
       <c r="Q45" t="n">
         <v>765.6853575475673</v>
@@ -7757,22 +7757,22 @@
         <v>765.6853575475673</v>
       </c>
       <c r="T45" t="n">
+        <v>765.6853575475673</v>
+      </c>
+      <c r="U45" t="n">
         <v>572.3304692779795</v>
       </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>378.9755810083918</v>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
+        <v>378.9755810083918</v>
+      </c>
+      <c r="X45" t="n">
         <v>185.6206927388041</v>
       </c>
-      <c r="W45" t="n">
-        <v>15.31370715095134</v>
-      </c>
-      <c r="X45" t="n">
-        <v>15.31370715095134</v>
-      </c>
       <c r="Y45" t="n">
-        <v>15.31370715095134</v>
+        <v>185.6206927388041</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>378.9755810083918</v>
+        <v>470.266038672748</v>
       </c>
       <c r="C46" t="n">
-        <v>378.9755810083918</v>
+        <v>470.266038672748</v>
       </c>
       <c r="D46" t="n">
-        <v>378.9755810083918</v>
+        <v>320.1493992604123</v>
       </c>
       <c r="E46" t="n">
-        <v>378.9755810083918</v>
+        <v>172.2363056780192</v>
       </c>
       <c r="F46" t="n">
-        <v>378.9755810083918</v>
+        <v>172.2363056780192</v>
       </c>
       <c r="G46" t="n">
-        <v>344.8621242046122</v>
+        <v>172.2363056780192</v>
       </c>
       <c r="H46" t="n">
-        <v>187.9395256775444</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="I46" t="n">
-        <v>54.40372369812508</v>
+        <v>15.31370715095134</v>
       </c>
       <c r="J46" t="n">
         <v>15.31370715095134</v>
       </c>
       <c r="K46" t="n">
-        <v>82.19195311173382</v>
+        <v>82.19195311173377</v>
       </c>
       <c r="L46" t="n">
         <v>223.2995171703012</v>
       </c>
       <c r="M46" t="n">
-        <v>382.466781824177</v>
+        <v>382.4667818241771</v>
       </c>
       <c r="N46" t="n">
         <v>543.2840211027658</v>
@@ -7833,25 +7833,25 @@
         <v>765.6853575475673</v>
       </c>
       <c r="S46" t="n">
+        <v>765.6853575475673</v>
+      </c>
+      <c r="T46" t="n">
+        <v>765.6853575475673</v>
+      </c>
+      <c r="U46" t="n">
+        <v>765.6853575475673</v>
+      </c>
+      <c r="V46" t="n">
+        <v>765.6853575475673</v>
+      </c>
+      <c r="W46" t="n">
+        <v>765.6853575475673</v>
+      </c>
+      <c r="X46" t="n">
         <v>572.3304692779795</v>
       </c>
-      <c r="T46" t="n">
+      <c r="Y46" t="n">
         <v>572.3304692779795</v>
-      </c>
-      <c r="U46" t="n">
-        <v>572.3304692779795</v>
-      </c>
-      <c r="V46" t="n">
-        <v>572.3304692779795</v>
-      </c>
-      <c r="W46" t="n">
-        <v>572.3304692779795</v>
-      </c>
-      <c r="X46" t="n">
-        <v>378.9755810083918</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>378.9755810083918</v>
       </c>
     </row>
   </sheetData>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>63.40636112730192</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>192.2687159936069</v>
       </c>
       <c r="L11" t="n">
-        <v>155.1980780704757</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>119.1266509455181</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>113.2964348008953</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>55.33804017032664</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>179.9641019065569</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>82.33378801654214</v>
+        <v>99.89537345432564</v>
       </c>
       <c r="N12" t="n">
-        <v>82.91876669651893</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>114.6069206478215</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>34.76145171098912</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>192.2687159936069</v>
+        <v>184.7694971367525</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>58.55303542759327</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>113.2964348008953</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>131.120168203818</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.18129683182894</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>92.04818127539883</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>82.9187666965189</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>47.64136265367132</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>149.2993460106923</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.26599365036583</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>34.76145171098912</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>200.4407003993116</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>97.5773210274684</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>149.0702482775893</v>
       </c>
       <c r="L18" t="n">
-        <v>67.63406248298634</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>22.26599365036583</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>34.76145171098912</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>209.4077429387284</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>200.4407003993116</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9482,7 +9482,7 @@
         <v>39.7116087184651</v>
       </c>
       <c r="K21" t="n">
-        <v>235.449674899533</v>
+        <v>47.63838081404951</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.26599365036583</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9649,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>322.6092547795479</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>97.5773210274684</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>87.34998953251463</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>162.4987809295271</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9889,13 +9889,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>131.7273481692242</v>
       </c>
       <c r="P26" t="n">
-        <v>248.8595689060372</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.18129683182894</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>39.7116087184651</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>176.1360915230807</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>289.4472065268913</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.26599365036583</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>176.1360915230807</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>15.25648581946449</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10360,10 +10360,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>364.4077851465387</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>307.8610419972999</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>39.7116087184651</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>289.4472065268913</v>
+        <v>15.25648581946449</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.26599365036583</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>34.76145171098912</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,10 +10594,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>200.4407003993116</v>
       </c>
       <c r="N35" t="n">
-        <v>322.6092547795479</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10667,7 +10667,7 @@
         <v>39.7116087184651</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>235.449674899533</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>450.3268122305079</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>34.76145171098912</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>376.5743942273872</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>97.57732102746886</v>
+        <v>36.18129683182894</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>39.7116087184651</v>
       </c>
       <c r="K39" t="n">
-        <v>149.0702482775897</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>450.3268122305079</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>34.76145171098912</v>
       </c>
       <c r="K41" t="n">
-        <v>54.97784204484412</v>
+        <v>189.3130055059288</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>39.7116087184651</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>92.04818127539929</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>29.12826188665069</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>149.2993460106923</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>34.76145171098912</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>163.9065825273619</v>
+        <v>0.847376606715045</v>
       </c>
       <c r="L44" t="n">
-        <v>155.1980780704757</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>9.116939813871326</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>174.8051807161666</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>39.7116087184651</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>129.7448330182251</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>99.89537345432564</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>82.9187666965189</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>92.04818127539932</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>75.94592246412248</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>227.6810733656803</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.5791839686534</v>
+        <v>222.1578445817616</v>
       </c>
       <c r="H11" t="n">
         <v>321.8234593578619</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.74262489079203</v>
+        <v>169.7445931457947</v>
       </c>
       <c r="T11" t="n">
         <v>24.1296545275161</v>
       </c>
       <c r="U11" t="n">
-        <v>59.78642923722614</v>
+        <v>251.207768624118</v>
       </c>
       <c r="V11" t="n">
         <v>136.3309190832431</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>170.6377669062089</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23357,7 +23357,7 @@
         <v>103.3291032345959</v>
       </c>
       <c r="I12" t="n">
-        <v>2.710943886594436</v>
+        <v>57.64605298542081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,16 +23393,16 @@
         <v>196.4476862875797</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8807121831417</v>
+        <v>34.45937279624988</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>41.37924776253345</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>14.35164581658566</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>14.26135639041254</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>132.8887499698871</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>20.1737749098173</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>155.3533725417971</v>
       </c>
       <c r="I13" t="n">
         <v>132.2004439596251</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.42321760391042</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>142.5307997308836</v>
@@ -23469,7 +23469,7 @@
         <v>210.5431066932743</v>
       </c>
       <c r="T13" t="n">
-        <v>224.6422295265924</v>
+        <v>33.22089013970057</v>
       </c>
       <c r="U13" t="n">
         <v>286.2768588045544</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>191.3125022765889</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>357.3550458099595</v>
+        <v>190.5090306853701</v>
       </c>
       <c r="F14" t="n">
-        <v>215.4547063548196</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>222.1578445817616</v>
+        <v>413.5791839686534</v>
       </c>
       <c r="H14" t="n">
-        <v>130.4021199709701</v>
+        <v>153.2195436258878</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>144.028591469672</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>169.7445931457947</v>
       </c>
       <c r="T14" t="n">
-        <v>215.5509939144079</v>
+        <v>24.12965452751621</v>
       </c>
       <c r="U14" t="n">
         <v>251.207768624118</v>
@@ -23585,7 +23585,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.4213347161474</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.90162923760938</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>154.5540366156231</v>
       </c>
       <c r="T15" t="n">
-        <v>27.84377055560552</v>
+        <v>196.4476862875797</v>
       </c>
       <c r="U15" t="n">
-        <v>34.45937279624988</v>
+        <v>53.82629869526906</v>
       </c>
       <c r="V15" t="n">
-        <v>41.37924776253345</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>60.27364377402779</v>
+        <v>60.2736437740279</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>14.26135639041266</v>
       </c>
     </row>
     <row r="16">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>42.45786223293197</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>132.2004439596251</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>38.69911638170199</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>286.2768588045544</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>60.7163039369363</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>95.1016589496993</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>181.1306233479827</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>367.0009099916531</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>321.8234593578619</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>41.60194747697156</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>169.7445931457947</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>215.5509939144079</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.207768624118</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>152.7014060932878</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>21.42321760391042</v>
       </c>
       <c r="R19" t="n">
         <v>142.5307997308836</v>
@@ -23946,16 +23946,16 @@
         <v>224.6422295265924</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.06956657232374</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>77.06479624144325</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>250.8368503203129</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.5791839686534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>321.8234593578619</v>
@@ -24025,16 +24025,16 @@
         <v>215.5509939144079</v>
       </c>
       <c r="U20" t="n">
-        <v>251.207768624118</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>184.4524641234095</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>155.3533725417971</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>132.2004439596251</v>
       </c>
       <c r="J22" t="n">
         <v>38.69911638170199</v>
@@ -24183,19 +24183,19 @@
         <v>224.6422295265924</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2768588045544</v>
+        <v>82.06956657232374</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>120.1498171446984</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>217.1643390779595</v>
       </c>
       <c r="G23" t="n">
         <v>413.5791839686534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>321.8234593578619</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>144.028591469672</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>41.60194747697156</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>169.7445931457947</v>
       </c>
       <c r="T23" t="n">
         <v>215.5509939144079</v>
       </c>
       <c r="U23" t="n">
-        <v>147.1596686849903</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24366,28 +24366,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.217852572957</v>
       </c>
       <c r="H25" t="n">
-        <v>155.3533725417971</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>132.2004439596251</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>38.69911638170199</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>142.5307997308836</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>210.5431066932743</v>
       </c>
       <c r="T25" t="n">
         <v>224.6422295265924</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2768588045544</v>
+        <v>157.8641292218302</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>18.60694290795476</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.5791839686534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>144.028591469672</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>41.60194747697156</v>
+        <v>11.53171797128837</v>
       </c>
       <c r="S26" t="n">
-        <v>169.7445931457947</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>69.26085492351302</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>116.9870142175189</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.217852572957</v>
+        <v>109.1983834552589</v>
       </c>
       <c r="H28" t="n">
         <v>155.3533725417971</v>
@@ -24657,7 +24657,7 @@
         <v>224.6422295265924</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2768588045544</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>383.9455719768887</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>135.5572015830301</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>169.7445931457947</v>
       </c>
       <c r="T29" t="n">
-        <v>215.5509939144079</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.207768624118</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.217852572957</v>
       </c>
       <c r="H31" t="n">
-        <v>56.48316407252483</v>
+        <v>155.3533725417971</v>
       </c>
       <c r="I31" t="n">
         <v>132.2004439596251</v>
@@ -24891,22 +24891,22 @@
         <v>210.5431066932743</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>224.6422295265924</v>
       </c>
       <c r="U31" t="n">
         <v>286.2768588045544</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>27.69231767698875</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>342.0725555137402</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>159.2453586450824</v>
+        <v>413.5791839686534</v>
       </c>
       <c r="H32" t="n">
-        <v>321.8234593578619</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>144.028591469672</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>169.7445931457947</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>38.80512299023272</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.217852572957</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>155.3533725417971</v>
       </c>
       <c r="I34" t="n">
         <v>132.2004439596251</v>
@@ -25122,7 +25122,7 @@
         <v>21.42321760391042</v>
       </c>
       <c r="R34" t="n">
-        <v>142.5307997308836</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>210.5431066932743</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>65.84300491498385</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>302.5756488920994</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>367.0009099916531</v>
+        <v>413.5791839686534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>169.7445931457947</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.207768624118</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>155.3533725417971</v>
+        <v>131.6788894396481</v>
       </c>
       <c r="I37" t="n">
         <v>132.2004439596251</v>
@@ -25359,10 +25359,10 @@
         <v>21.42321760391042</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>142.5307997308836</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>210.5431066932743</v>
       </c>
       <c r="T37" t="n">
         <v>224.6422295265924</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>151.7489535117147</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>324.7595354919018</v>
+        <v>168.3945780624813</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>41.60194747697156</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>169.7445931457947</v>
       </c>
       <c r="T38" t="n">
         <v>215.5509939144079</v>
@@ -25450,7 +25450,7 @@
         <v>251.207768624118</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.217852572957</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>155.3533725417971</v>
+        <v>51.39028207354225</v>
       </c>
       <c r="I40" t="n">
         <v>132.2004439596251</v>
@@ -25605,13 +25605,13 @@
         <v>224.6422295265924</v>
       </c>
       <c r="U40" t="n">
-        <v>82.06956657232374</v>
+        <v>286.2768588045544</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>227.6810733656803</v>
+        <v>186.0791258887087</v>
       </c>
       <c r="E41" t="n">
-        <v>190.50903068537</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25645,7 +25645,7 @@
         <v>413.5791839686534</v>
       </c>
       <c r="H41" t="n">
-        <v>130.4021199709701</v>
+        <v>321.8234593578619</v>
       </c>
       <c r="I41" t="n">
         <v>144.028591469672</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>41.60194747697156</v>
       </c>
       <c r="S41" t="n">
         <v>169.7445931457947</v>
@@ -25687,10 +25687,10 @@
         <v>59.78642923722614</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>136.3309190832431</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>157.8196293305212</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25712,22 +25712,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.4213347161474</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>103.3291032345959</v>
       </c>
       <c r="I42" t="n">
-        <v>57.64605298542081</v>
+        <v>25.46347196959393</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,10 +25760,10 @@
         <v>154.5540366156231</v>
       </c>
       <c r="T42" t="n">
-        <v>128.9367091267362</v>
+        <v>196.4476862875797</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8807121831417</v>
+        <v>34.45937279624988</v>
       </c>
       <c r="V42" t="n">
         <v>41.37924776253345</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>70.16934019546299</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>132.2004439596251</v>
       </c>
       <c r="J43" t="n">
         <v>38.69911638170199</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>21.42321760391042</v>
       </c>
       <c r="R43" t="n">
         <v>142.5307997308836</v>
@@ -25839,16 +25839,16 @@
         <v>210.5431066932743</v>
       </c>
       <c r="T43" t="n">
-        <v>224.6422295265924</v>
+        <v>33.22089013970057</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2768588045544</v>
+        <v>202.822537436482</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>95.10165894969919</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25873,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>190.50903068537</v>
       </c>
       <c r="F44" t="n">
-        <v>402.2259227152836</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>222.1578445817616</v>
+        <v>413.5791839686534</v>
       </c>
       <c r="H44" t="n">
-        <v>130.4021199709701</v>
+        <v>321.8234593578619</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>144.028591469672</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>41.60194747697156</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>169.7445931457947</v>
       </c>
       <c r="T44" t="n">
         <v>215.5509939144079</v>
       </c>
       <c r="U44" t="n">
-        <v>251.207768624118</v>
+        <v>82.60385289214375</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>136.3309190832431</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>157.8196293305212</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.4213347161474</v>
+        <v>25.46347196959394</v>
       </c>
       <c r="H45" t="n">
         <v>103.3291032345959</v>
       </c>
       <c r="I45" t="n">
-        <v>57.64605298542081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>154.5540366156231</v>
       </c>
       <c r="T45" t="n">
-        <v>5.026346900687912</v>
+        <v>196.4476862875797</v>
       </c>
       <c r="U45" t="n">
         <v>34.45937279624988</v>
@@ -26006,10 +26006,10 @@
         <v>41.37924776253345</v>
       </c>
       <c r="W45" t="n">
-        <v>83.09106742894539</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>14.35164581658566</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>78.78819388275805</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>133.4455303372152</v>
+        <v>167.217852572957</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>132.2004439596251</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>38.69911638170199</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>142.5307997308836</v>
       </c>
       <c r="S46" t="n">
-        <v>19.12176730638248</v>
+        <v>210.5431066932743</v>
       </c>
       <c r="T46" t="n">
         <v>224.6422295265924</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394779.032151</v>
+        <v>394779.0321510001</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>702562.977104196</v>
+        <v>702562.9771041957</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>702562.9771041959</v>
+        <v>702562.9771041957</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>702562.977104196</v>
+        <v>702562.9771041959</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>702562.977104196</v>
+        <v>702562.9771041959</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>702562.977104196</v>
+        <v>702562.9771041961</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>702562.9771041961</v>
+        <v>702562.977104196</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>702562.9771041957</v>
+        <v>702562.9771041959</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394779.0321510002</v>
+        <v>394779.0321510001</v>
       </c>
     </row>
     <row r="16">
@@ -26316,25 +26316,25 @@
         <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="D2" t="n">
         <v>593975.3455698526</v>
       </c>
       <c r="E2" t="n">
-        <v>257346.6555798365</v>
+        <v>257346.6555798363</v>
       </c>
       <c r="F2" t="n">
         <v>257346.6555798363</v>
       </c>
       <c r="G2" t="n">
-        <v>421834.0171975037</v>
+        <v>421834.0171975038</v>
       </c>
       <c r="H2" t="n">
         <v>421834.0171975038</v>
       </c>
       <c r="I2" t="n">
-        <v>421834.0171975037</v>
+        <v>421834.0171975036</v>
       </c>
       <c r="J2" t="n">
         <v>421834.0171975038</v>
@@ -26343,19 +26343,19 @@
         <v>421834.0171975037</v>
       </c>
       <c r="L2" t="n">
-        <v>421834.0171975037</v>
+        <v>421834.0171975036</v>
       </c>
       <c r="M2" t="n">
-        <v>421834.0171975038</v>
+        <v>421834.0171975039</v>
       </c>
       <c r="N2" t="n">
         <v>421834.0171975038</v>
       </c>
       <c r="O2" t="n">
-        <v>257346.6555798363</v>
+        <v>257346.6555798364</v>
       </c>
       <c r="P2" t="n">
-        <v>257346.6555798364</v>
+        <v>257346.6555798365</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47702.96346057096</v>
+        <v>47702.96346057097</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>31110.09660123016</v>
+        <v>31110.09660123015</v>
       </c>
       <c r="F4" t="n">
-        <v>31110.09660123015</v>
+        <v>31110.09660123014</v>
       </c>
       <c r="G4" t="n">
         <v>106690.1726218591</v>
@@ -26453,7 +26453,7 @@
         <v>106690.1726218591</v>
       </c>
       <c r="N4" t="n">
-        <v>106690.1726218592</v>
+        <v>106690.1726218591</v>
       </c>
       <c r="O4" t="n">
         <v>31110.09660123015</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145575.3469568937</v>
+        <v>145531.2111782126</v>
       </c>
       <c r="C6" t="n">
-        <v>145575.3469568938</v>
+        <v>145531.2111782125</v>
       </c>
       <c r="D6" t="n">
-        <v>145575.3469568937</v>
+        <v>145531.2111782126</v>
       </c>
       <c r="E6" t="n">
-        <v>-196348.5964853792</v>
+        <v>-208000.6181257851</v>
       </c>
       <c r="F6" t="n">
-        <v>205251.7415496998</v>
+        <v>193599.719909294</v>
       </c>
       <c r="G6" t="n">
-        <v>133683.3817571688</v>
+        <v>127703.3381035791</v>
       </c>
       <c r="H6" t="n">
-        <v>265023.8934749231</v>
+        <v>259043.8498213334</v>
       </c>
       <c r="I6" t="n">
-        <v>265023.893474923</v>
+        <v>259043.8498213332</v>
       </c>
       <c r="J6" t="n">
-        <v>265023.8934749231</v>
+        <v>259043.8498213334</v>
       </c>
       <c r="K6" t="n">
-        <v>265023.893474923</v>
+        <v>259043.8498213333</v>
       </c>
       <c r="L6" t="n">
-        <v>265023.893474923</v>
+        <v>259043.8498213332</v>
       </c>
       <c r="M6" t="n">
-        <v>217320.9300143521</v>
+        <v>211340.8863607626</v>
       </c>
       <c r="N6" t="n">
-        <v>265023.893474923</v>
+        <v>259043.8498213335</v>
       </c>
       <c r="O6" t="n">
-        <v>205251.7415496998</v>
+        <v>193599.719909294</v>
       </c>
       <c r="P6" t="n">
-        <v>205251.7415496998</v>
+        <v>193599.7199092941</v>
       </c>
     </row>
   </sheetData>
@@ -26801,7 +26801,7 @@
         <v>191.4213393868918</v>
       </c>
       <c r="F4" t="n">
-        <v>191.4213393868918</v>
+        <v>191.4213393868917</v>
       </c>
       <c r="G4" t="n">
         <v>670.6176168838515</v>
@@ -26825,7 +26825,7 @@
         <v>670.6176168838515</v>
       </c>
       <c r="N4" t="n">
-        <v>670.6176168838516</v>
+        <v>670.6176168838515</v>
       </c>
       <c r="O4" t="n">
         <v>191.4213393868918</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>191.4213393868917</v>
+        <v>191.4213393868918</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>28.6449094163128</v>
+        <v>134.3351634610846</v>
       </c>
       <c r="K11" t="n">
         <v>191.4213393868918</v>
       </c>
       <c r="L11" t="n">
+        <v>36.22326131641614</v>
+      </c>
+      <c r="M11" t="n">
+        <v>72.29468844137372</v>
+      </c>
+      <c r="N11" t="n">
         <v>191.4213393868918</v>
       </c>
-      <c r="M11" t="n">
-        <v>191.4213393868918</v>
-      </c>
-      <c r="N11" t="n">
-        <v>78.12490458599655</v>
-      </c>
       <c r="O11" t="n">
-        <v>60.30117118307382</v>
+        <v>115.6392113534005</v>
       </c>
       <c r="P11" t="n">
         <v>16.61615867072518</v>
@@ -35491,19 +35491,19 @@
         <v>86.37942662194374</v>
       </c>
       <c r="K12" t="n">
-        <v>11.07080292708187</v>
+        <v>191.0349048336388</v>
       </c>
       <c r="L12" t="n">
         <v>61.67650636866674</v>
       </c>
       <c r="M12" t="n">
-        <v>173.8597539491083</v>
+        <v>191.4213393868918</v>
       </c>
       <c r="N12" t="n">
-        <v>191.4213393868918</v>
+        <v>108.5025726903729</v>
       </c>
       <c r="O12" t="n">
-        <v>191.4213393868918</v>
+        <v>76.81441873907031</v>
       </c>
       <c r="P12" t="n">
         <v>42.1219933761995</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>134.3351634610846</v>
       </c>
       <c r="K14" t="n">
-        <v>191.4213393868918</v>
+        <v>183.9221205300375</v>
       </c>
       <c r="L14" t="n">
         <v>36.22326131641614</v>
       </c>
       <c r="M14" t="n">
-        <v>130.847723868967</v>
+        <v>72.29468844137372</v>
       </c>
       <c r="N14" t="n">
-        <v>191.4213393868918</v>
+        <v>78.12490458599655</v>
       </c>
       <c r="O14" t="n">
-        <v>191.4213393868918</v>
+        <v>60.30117118307382</v>
       </c>
       <c r="P14" t="n">
         <v>16.61615867072518</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>176.1336938280757</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>86.37942662194374</v>
       </c>
       <c r="K15" t="n">
-        <v>11.07080292708187</v>
+        <v>103.1189842024807</v>
       </c>
       <c r="L15" t="n">
         <v>61.67650636866674</v>
@@ -35737,16 +35737,16 @@
         <v>91.52596593256618</v>
       </c>
       <c r="N15" t="n">
-        <v>191.4213393868918</v>
+        <v>108.5025726903729</v>
       </c>
       <c r="O15" t="n">
-        <v>124.4557813927416</v>
+        <v>76.81441873907031</v>
       </c>
       <c r="P15" t="n">
-        <v>191.4213393868918</v>
+        <v>42.1219933761995</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>187.8112940854833</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>134.3351634610846</v>
       </c>
       <c r="K17" t="n">
         <v>323.2980359644497</v>
@@ -35892,7 +35892,7 @@
         <v>453.8844758668666</v>
       </c>
       <c r="M17" t="n">
-        <v>521.8082219342062</v>
+        <v>272.7353888406853</v>
       </c>
       <c r="N17" t="n">
         <v>515.4718289979808</v>
@@ -35904,7 +35904,7 @@
         <v>338.4148668422079</v>
       </c>
       <c r="Q17" t="n">
-        <v>61.39602419563946</v>
+        <v>176.1336938280757</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>86.37942662194374</v>
       </c>
       <c r="K18" t="n">
-        <v>275.5360399396604</v>
+        <v>160.1410512046711</v>
       </c>
       <c r="L18" t="n">
-        <v>129.3105688516531</v>
+        <v>432.5168516721259</v>
       </c>
       <c r="M18" t="n">
         <v>557.231029682566</v>
@@ -35983,7 +35983,7 @@
         <v>360.5847620161367</v>
       </c>
       <c r="Q18" t="n">
-        <v>187.8112940854833</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>134.3351634610846</v>
       </c>
       <c r="K20" t="n">
-        <v>208.5603663320134</v>
+        <v>323.2980359644497</v>
       </c>
       <c r="L20" t="n">
         <v>453.8844758668666</v>
       </c>
       <c r="M20" t="n">
-        <v>521.8082219342062</v>
+        <v>272.7353888406853</v>
       </c>
       <c r="N20" t="n">
         <v>515.4718289979808</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>246.5204778266149</v>
+        <v>58.70918374113138</v>
       </c>
       <c r="L21" t="n">
         <v>432.5168516721259</v>
@@ -36220,7 +36220,7 @@
         <v>360.5847620161367</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>187.8112940854833</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>521.8082219342062</v>
       </c>
       <c r="N23" t="n">
-        <v>515.4718289979808</v>
+        <v>400.7341593655445</v>
       </c>
       <c r="O23" t="n">
         <v>441.1013524458192</v>
@@ -36378,7 +36378,7 @@
         <v>338.4148668422079</v>
       </c>
       <c r="Q23" t="n">
-        <v>61.39602419563946</v>
+        <v>176.1336938280757</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>47.63838081404952</v>
+        <v>86.37942662194374</v>
       </c>
       <c r="K24" t="n">
-        <v>11.07080292708187</v>
+        <v>275.5360399396604</v>
       </c>
       <c r="L24" t="n">
         <v>432.5168516721259</v>
       </c>
       <c r="M24" t="n">
-        <v>557.231029682566</v>
+        <v>254.0247468620933</v>
       </c>
       <c r="N24" t="n">
         <v>587.8449470339265</v>
@@ -36609,13 +36609,13 @@
         <v>515.4718289979808</v>
       </c>
       <c r="O26" t="n">
-        <v>441.1013524458192</v>
+        <v>192.028519352298</v>
       </c>
       <c r="P26" t="n">
-        <v>265.4757275767624</v>
+        <v>338.4148668422079</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>176.1336938280757</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>86.37942662194374</v>
       </c>
       <c r="K27" t="n">
         <v>275.5360399396604</v>
@@ -36685,16 +36685,16 @@
         <v>557.231029682566</v>
       </c>
       <c r="N27" t="n">
-        <v>587.8449470339265</v>
+        <v>284.6386642134536</v>
       </c>
       <c r="O27" t="n">
         <v>470.6767380157999</v>
       </c>
       <c r="P27" t="n">
-        <v>331.5691999030908</v>
+        <v>360.5847620161367</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>187.8112940854833</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>557.231029682566</v>
       </c>
       <c r="N30" t="n">
-        <v>587.8449470339265</v>
+        <v>284.6386642134536</v>
       </c>
       <c r="O30" t="n">
         <v>470.6767380157999</v>
       </c>
       <c r="P30" t="n">
-        <v>57.37847919566399</v>
+        <v>360.5847620161367</v>
       </c>
       <c r="Q30" t="n">
         <v>187.8112940854833</v>
@@ -37080,10 +37080,10 @@
         <v>521.8082219342062</v>
       </c>
       <c r="N32" t="n">
-        <v>442.5326897325352</v>
+        <v>515.4718289979808</v>
       </c>
       <c r="O32" t="n">
-        <v>441.1013524458192</v>
+        <v>368.1622131803737</v>
       </c>
       <c r="P32" t="n">
         <v>338.4148668422079</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>86.37942662194374</v>
       </c>
       <c r="K33" t="n">
         <v>275.5360399396604</v>
@@ -37165,10 +37165,10 @@
         <v>470.6767380157999</v>
       </c>
       <c r="P33" t="n">
-        <v>331.5691999030908</v>
+        <v>57.37847919566399</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>187.8112940854833</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>134.3351634610846</v>
       </c>
       <c r="K35" t="n">
         <v>323.2980359644497</v>
@@ -37314,10 +37314,10 @@
         <v>453.8844758668666</v>
       </c>
       <c r="M35" t="n">
-        <v>521.8082219342062</v>
+        <v>272.7353888406853</v>
       </c>
       <c r="N35" t="n">
-        <v>400.7341593655445</v>
+        <v>515.4718289979808</v>
       </c>
       <c r="O35" t="n">
         <v>441.1013524458192</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>275.5360399396604</v>
+        <v>246.5204778266149</v>
       </c>
       <c r="L36" t="n">
         <v>432.5168516721259</v>
@@ -37396,7 +37396,7 @@
         <v>557.231029682566</v>
       </c>
       <c r="N36" t="n">
-        <v>558.8293849208808</v>
+        <v>587.8449470339265</v>
       </c>
       <c r="O36" t="n">
         <v>470.6767380157999</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>134.3351634610846</v>
       </c>
       <c r="K38" t="n">
         <v>323.2980359644497</v>
@@ -37551,7 +37551,7 @@
         <v>453.8844758668666</v>
       </c>
       <c r="M38" t="n">
-        <v>521.8082219342062</v>
+        <v>448.8690826687609</v>
       </c>
       <c r="N38" t="n">
         <v>515.4718289979808</v>
@@ -37563,7 +37563,7 @@
         <v>338.4148668422079</v>
       </c>
       <c r="Q38" t="n">
-        <v>61.39602419563992</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>86.37942662194374</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>160.1410512046716</v>
+        <v>275.5360399396604</v>
       </c>
       <c r="L39" t="n">
         <v>432.5168516721259</v>
@@ -37633,7 +37633,7 @@
         <v>557.231029682566</v>
       </c>
       <c r="N39" t="n">
-        <v>587.8449470339265</v>
+        <v>558.8293849208808</v>
       </c>
       <c r="O39" t="n">
         <v>470.6767380157999</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>134.3351634610846</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>54.13046543812908</v>
+        <v>188.4656288992137</v>
       </c>
       <c r="L41" t="n">
         <v>36.22326131641614</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>86.37942662194374</v>
       </c>
       <c r="K42" t="n">
         <v>11.07080292708187</v>
       </c>
       <c r="L42" t="n">
-        <v>61.67650636866674</v>
+        <v>153.724687644066</v>
       </c>
       <c r="M42" t="n">
         <v>91.52596593256618</v>
@@ -37873,10 +37873,10 @@
         <v>108.5025726903729</v>
       </c>
       <c r="O42" t="n">
-        <v>105.942680625721</v>
+        <v>76.81441873907031</v>
       </c>
       <c r="P42" t="n">
-        <v>191.4213393868918</v>
+        <v>42.1219933761995</v>
       </c>
       <c r="Q42" t="n">
         <v>187.8112940854833</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>134.3351634610846</v>
       </c>
       <c r="K44" t="n">
-        <v>163.0592059206469</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>191.4213393868918</v>
+        <v>36.22326131641614</v>
       </c>
       <c r="M44" t="n">
         <v>72.29468844137372</v>
       </c>
       <c r="N44" t="n">
-        <v>78.12490458599655</v>
+        <v>87.24184439986787</v>
       </c>
       <c r="O44" t="n">
         <v>60.30117118307382</v>
       </c>
       <c r="P44" t="n">
-        <v>16.61615867072518</v>
+        <v>191.4213393868918</v>
       </c>
       <c r="Q44" t="n">
         <v>176.1336938280757</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>86.37942662194374</v>
       </c>
       <c r="K45" t="n">
         <v>11.07080292708187</v>
       </c>
       <c r="L45" t="n">
-        <v>191.4213393868918</v>
+        <v>61.67650636866674</v>
       </c>
       <c r="M45" t="n">
-        <v>191.4213393868918</v>
+        <v>91.52596593256618</v>
       </c>
       <c r="N45" t="n">
-        <v>191.4213393868918</v>
+        <v>108.5025726903729</v>
       </c>
       <c r="O45" t="n">
-        <v>76.81441873907031</v>
+        <v>168.8626000144696</v>
       </c>
       <c r="P45" t="n">
         <v>42.1219933761995</v>
       </c>
       <c r="Q45" t="n">
-        <v>53.67992881375665</v>
+        <v>187.8112940854833</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
